--- a/data/trans_orig/P56$amigo-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P56$amigo-Habitat-trans_orig.xlsx
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5559</v>
+        <v>5580</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1394189736501097</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4246497036953837</v>
+        <v>0.426275007038615</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6951</v>
+        <v>5877</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1402506646410938</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4241536495646633</v>
+        <v>0.3585891866469028</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -927,19 +927,19 @@
         <v>4124</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1137</v>
+        <v>1095</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9341</v>
+        <v>9026</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1398813198762804</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03857546051297611</v>
+        <v>0.03713687562790705</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3168773274519907</v>
+        <v>0.3061858641438346</v>
       </c>
     </row>
     <row r="8">
@@ -959,16 +959,16 @@
         <v>1872</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8420</v>
+        <v>8458</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3614490625119935</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.143006196865606</v>
+        <v>0.1430223517232557</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6432270512546899</v>
+        <v>0.646058520947394</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -977,19 +977,19 @@
         <v>8911</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4513</v>
+        <v>4521</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13109</v>
+        <v>12513</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5437549565842927</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2753853238505622</v>
+        <v>0.2758972217272852</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7999287770688928</v>
+        <v>0.7635585663489188</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -998,19 +998,19 @@
         <v>13643</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8044</v>
+        <v>8510</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18951</v>
+        <v>18697</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4627949265970019</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2728628006489797</v>
+        <v>0.2886640680431787</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6428508116389045</v>
+        <v>0.6342400991234401</v>
       </c>
     </row>
     <row r="9">
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3966</v>
+        <v>3944</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07219818257789984</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.302961448089845</v>
+        <v>0.3012465244639048</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5180</v>
+        <v>4447</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03206241386916751</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1757257621607841</v>
+        <v>0.1508671185000325</v>
       </c>
     </row>
     <row r="10">
@@ -1137,19 +1137,19 @@
         <v>3775</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>956</v>
+        <v>1087</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7547</v>
+        <v>8447</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2883743492456171</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0730541803718176</v>
+        <v>0.08299634229267173</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5765059670226347</v>
+        <v>0.6452779953340264</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5537</v>
+        <v>6433</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1251771847076077</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3378496619304917</v>
+        <v>0.3925475019328489</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -1179,19 +1179,19 @@
         <v>5827</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2722</v>
+        <v>2631</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11739</v>
+        <v>10853</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.197651239384075</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09232919217163621</v>
+        <v>0.0892460118143496</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3982241684519638</v>
+        <v>0.3681501629183686</v>
       </c>
     </row>
     <row r="12">
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5490</v>
+        <v>4885</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1385594320143799</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4193831905212959</v>
+        <v>0.3731287897929397</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1229,19 +1229,19 @@
         <v>3127</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7430</v>
+        <v>7481</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1908171940670057</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05862277057660939</v>
+        <v>0.05782232646675797</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4534094883952317</v>
+        <v>0.4564929728248004</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1250,19 +1250,19 @@
         <v>4941</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1892</v>
+        <v>1848</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10696</v>
+        <v>10000</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1676101002734751</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06419685316694854</v>
+        <v>0.06267933824561124</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3628366002289136</v>
+        <v>0.339224187385864</v>
       </c>
     </row>
     <row r="13">
@@ -1330,19 +1330,19 @@
         <v>3076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7133</v>
+        <v>7217</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2054981942264965</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0677419358234148</v>
+        <v>0.06738568374865123</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4765865240384815</v>
+        <v>0.4821915941543393</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>3076</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>974</v>
+        <v>997</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8294</v>
+        <v>8483</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07264840637674819</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02301395533056993</v>
+        <v>0.02354818226040962</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.195909141398793</v>
+        <v>0.2003614136158612</v>
       </c>
     </row>
     <row r="15">
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5813</v>
+        <v>5226</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03955589440397585</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.212372582396426</v>
+        <v>0.1909465616895578</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5546</v>
+        <v>5563</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02557196280753338</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1309943449493595</v>
+        <v>0.1313981326360931</v>
       </c>
     </row>
     <row r="16">
@@ -1503,19 +1503,19 @@
         <v>3076</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7155</v>
+        <v>7148</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2054981942264965</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06817004932418931</v>
+        <v>0.06748578242487131</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4780193935571592</v>
+        <v>0.477556083751927</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1524,19 +1524,19 @@
         <v>8224</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3653</v>
+        <v>3534</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14019</v>
+        <v>13786</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3004749583335208</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1334539347644108</v>
+        <v>0.1291084227700712</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5121983878936274</v>
+        <v>0.5037020624615383</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -1545,19 +1545,19 @@
         <v>11300</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6011</v>
+        <v>5675</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18796</v>
+        <v>17518</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2668984562081995</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1419797669742713</v>
+        <v>0.1340327110714589</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.443940886033666</v>
+        <v>0.4137688333795558</v>
       </c>
     </row>
     <row r="18">
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5725</v>
+        <v>4574</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06865708885418251</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3824861491186618</v>
+        <v>0.3055817655104507</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -1595,19 +1595,19 @@
         <v>11332</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6126</v>
+        <v>6061</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16970</v>
+        <v>17121</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4140449795625928</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.223813122956307</v>
+        <v>0.2214514051742452</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6200185478127231</v>
+        <v>0.6255562805788186</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>11</v>
@@ -1616,19 +1616,19 @@
         <v>12360</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6583</v>
+        <v>6646</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>19522</v>
+        <v>20030</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2919423015500714</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1554927359375125</v>
+        <v>0.1569641113167119</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4610869885480242</v>
+        <v>0.4731028429995398</v>
       </c>
     </row>
     <row r="19">
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8250</v>
+        <v>6591</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04822667575227534</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3014213417599781</v>
+        <v>0.2408174688357394</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5992</v>
+        <v>6599</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03117742064111184</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1415358340847427</v>
+        <v>0.1558763105204204</v>
       </c>
     </row>
     <row r="20">
@@ -1755,19 +1755,19 @@
         <v>8823</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4832</v>
+        <v>4790</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11934</v>
+        <v>12827</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5894635694909131</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3228188220159758</v>
+        <v>0.3200429523226823</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7973832875353679</v>
+        <v>0.8570110756977953</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -1776,19 +1776,19 @@
         <v>5411</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2055</v>
+        <v>2074</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11382</v>
+        <v>10709</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1976974919476351</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07507719881439637</v>
+        <v>0.07579429839327986</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4158572182104109</v>
+        <v>0.3912700775844758</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>14</v>
@@ -1797,19 +1797,19 @@
         <v>14234</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>8849</v>
+        <v>8444</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>21228</v>
+        <v>21335</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3361959411097688</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2090201573112725</v>
+        <v>0.1994465778853995</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5013880683287029</v>
+        <v>0.5039196464784167</v>
       </c>
     </row>
     <row r="22">
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5230</v>
+        <v>4539</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06003606900428034</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2963574600274397</v>
+        <v>0.2572380437094611</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4942</v>
+        <v>5333</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04306377369598489</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.20089858764492</v>
+        <v>0.2167959970313566</v>
       </c>
     </row>
     <row r="26">
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4363</v>
+        <v>4288</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2371957901382337</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6273890093233441</v>
+        <v>0.6164961896506775</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4</v>
@@ -2102,19 +2102,19 @@
         <v>3955</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1100</v>
+        <v>1058</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>8545</v>
+        <v>8390</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2241410039344546</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.06231605738368297</v>
+        <v>0.05998403374981168</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4842195245541543</v>
+        <v>0.475465271006085</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6</v>
@@ -2123,19 +2123,19 @@
         <v>5605</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2195</v>
+        <v>2572</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>10830</v>
+        <v>10327</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2278316134349101</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.089237231971562</v>
+        <v>0.104530933947759</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4402434713705888</v>
+        <v>0.4197885147581272</v>
       </c>
     </row>
     <row r="28">
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4624</v>
+        <v>4698</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2760797786132372</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6648015269404068</v>
+        <v>0.6755325062496356</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -2173,19 +2173,19 @@
         <v>8015</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4028</v>
+        <v>3569</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12403</v>
+        <v>12148</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4542052661161313</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2282657815560366</v>
+        <v>0.2022503018425018</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7028532718152377</v>
+        <v>0.688420938175125</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>9</v>
@@ -2194,19 +2194,19 @@
         <v>9935</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5574</v>
+        <v>5389</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>14904</v>
+        <v>15194</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4038488982530444</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2265787481343011</v>
+        <v>0.2190422909528729</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6058100136163381</v>
+        <v>0.6176280010796876</v>
       </c>
     </row>
     <row r="29">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4008</v>
+        <v>3230</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1106310092137064</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5762211681068399</v>
+        <v>0.4643858654633851</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6615</v>
+        <v>7005</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1274890293570842</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3748484042283019</v>
+        <v>0.3969701626815771</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -2265,19 +2265,19 @@
         <v>3019</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8180</v>
+        <v>7505</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1227232393756282</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03113019918822543</v>
+        <v>0.03166128061731201</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3325251957337444</v>
+        <v>0.3050495710559603</v>
       </c>
     </row>
     <row r="30">
@@ -2341,19 +2341,19 @@
         <v>2616</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5281</v>
+        <v>5305</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3760934220348227</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.109292532381123</v>
+        <v>0.106696214933751</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7592869824863668</v>
+        <v>0.7627312168035077</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4885</v>
+        <v>4811</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08328692809892344</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2768117998558779</v>
+        <v>0.2726278697336522</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5</v>
@@ -2383,19 +2383,19 @@
         <v>4085</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1509</v>
+        <v>1516</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>8428</v>
+        <v>8775</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1660638048280176</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06134955848534504</v>
+        <v>0.06162234078254776</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3426064056839608</v>
+        <v>0.3566979945751591</v>
       </c>
     </row>
     <row r="32">
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6345</v>
+        <v>6178</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1108777724934066</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3595954479745193</v>
+        <v>0.350127171300079</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5901</v>
+        <v>6155</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07953244410839977</v>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2398857893960139</v>
+        <v>0.2501810567923246</v>
       </c>
     </row>
     <row r="33">
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6881</v>
+        <v>7305</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06354552692932995</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2140941854979953</v>
+        <v>0.2272714110845065</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7177</v>
+        <v>7286</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04497870604483455</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1580692884672832</v>
+        <v>0.1604632029919809</v>
       </c>
     </row>
     <row r="35">
@@ -2602,19 +2602,19 @@
         <v>4382</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>9577</v>
+        <v>8978</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1363331237421591</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03491878467225779</v>
+        <v>0.03470308618846718</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2979903931551763</v>
+        <v>0.2793256136358747</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>4</v>
@@ -2623,19 +2623,19 @@
         <v>4382</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1139</v>
+        <v>1158</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>10029</v>
+        <v>10854</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.09649912107570097</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02507491220780302</v>
+        <v>0.02550506112707239</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2208730155630284</v>
+        <v>0.2390312065508212</v>
       </c>
     </row>
     <row r="36">
@@ -2699,19 +2699,19 @@
         <v>3316</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>7422</v>
+        <v>6634</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2499128131133126</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06248455185149644</v>
+        <v>0.06204885385846489</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5594267967616198</v>
+        <v>0.5000697637822615</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>7900</v>
+        <v>8225</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.07867599774864358</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2458018431808296</v>
+        <v>0.2559114857896621</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>6</v>
@@ -2741,19 +2741,19 @@
         <v>5844</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2098</v>
+        <v>2568</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>11620</v>
+        <v>12477</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1287082098230355</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04621270136052735</v>
+        <v>0.0565642395516142</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2559029703830306</v>
+        <v>0.274778664389399</v>
       </c>
     </row>
     <row r="38">
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>4966</v>
+        <v>4993</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1252196774400555</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3743356561205099</v>
+        <v>0.3763203721969279</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>9</v>
@@ -2791,19 +2791,19 @@
         <v>10130</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>5479</v>
+        <v>5512</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>16159</v>
+        <v>15934</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3151755967735875</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1704839047206353</v>
+        <v>0.1714867349126767</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5027587674136095</v>
+        <v>0.4957661080905684</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>11</v>
@@ -2812,19 +2812,19 @@
         <v>11791</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6266</v>
+        <v>6643</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>17667</v>
+        <v>17979</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2596740107353185</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1379950182878114</v>
+        <v>0.1463007586761275</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3890799572539548</v>
+        <v>0.3959442942666542</v>
       </c>
     </row>
     <row r="39">
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>4976</v>
+        <v>4960</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1246968436490731</v>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3750798725815095</v>
+        <v>0.3738664082917187</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>6</v>
@@ -2862,19 +2862,19 @@
         <v>6452</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>2427</v>
+        <v>2880</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>12491</v>
+        <v>12175</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2007500560053227</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.07551983885986716</v>
+        <v>0.08960182326268896</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3886351329736884</v>
+        <v>0.3788248507087957</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>8</v>
@@ -2883,19 +2883,19 @@
         <v>8106</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>3960</v>
+        <v>3953</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>14047</v>
+        <v>14920</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1785287221090854</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.08720553535203911</v>
+        <v>0.08704858066601392</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.3093540800533092</v>
+        <v>0.3285854547687765</v>
       </c>
     </row>
     <row r="40">
@@ -2959,19 +2959,19 @@
         <v>4989</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2456</v>
+        <v>1703</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8319</v>
+        <v>8340</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3760240977207859</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1850984451510094</v>
+        <v>0.1283526610558335</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.6270261232980927</v>
+        <v>0.6286566165002121</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>6393</v>
+        <v>5632</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05667111023858577</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1989028384459543</v>
+        <v>0.1752368234099841</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>8</v>
@@ -3001,19 +3001,19 @@
         <v>6810</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>3227</v>
+        <v>3154</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>11926</v>
+        <v>12067</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1499801125245321</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07106940648810944</v>
+        <v>0.06945382364795229</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2626415716807958</v>
+        <v>0.2657533771668862</v>
       </c>
     </row>
     <row r="42">
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4169</v>
+        <v>4950</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1241465680767729</v>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3142747600576259</v>
+        <v>0.373076215302225</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>5</v>
@@ -3051,19 +3051,19 @@
         <v>5715</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2219</v>
+        <v>1219</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>10677</v>
+        <v>11255</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1778131156533433</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.06902789173769608</v>
+        <v>0.03794272588840899</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3321929370076163</v>
+        <v>0.3501853982677749</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>7</v>
@@ -3072,19 +3072,19 @@
         <v>7362</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3391</v>
+        <v>3124</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>14018</v>
+        <v>13732</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1621327487653393</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.07467529128574558</v>
+        <v>0.06880003252005086</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3087201534966647</v>
+        <v>0.302429544892847</v>
       </c>
     </row>
     <row r="43">
@@ -3152,19 +3152,19 @@
         <v>3076</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>7219</v>
+        <v>7720</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.06370620898941061</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02065455728898553</v>
+        <v>0.0209528268313097</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1495174870297562</v>
+        <v>0.1598869764874277</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>6366</v>
+        <v>6763</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.02183302243278206</v>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.0680564885488408</v>
+        <v>0.07230169404172258</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>5</v>
@@ -3194,19 +3194,19 @@
         <v>5118</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1998</v>
+        <v>1937</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>10914</v>
+        <v>11320</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.03608766255416745</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01408907081817239</v>
+        <v>0.01365715648792474</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.07695723568330048</v>
+        <v>0.07981962354644098</v>
       </c>
     </row>
     <row r="45">
@@ -3236,19 +3236,19 @@
         <v>6524</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>2224</v>
+        <v>2251</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>12929</v>
+        <v>12977</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.06974027922574513</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.02377897523180993</v>
+        <v>0.02405920170849666</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1382159702541773</v>
+        <v>0.13872497416496</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>6</v>
@@ -3257,19 +3257,19 @@
         <v>6524</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>2342</v>
+        <v>2297</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>12802</v>
+        <v>13806</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.0459990103117232</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.01651238785232563</v>
+        <v>0.016195650834365</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.09026577121047114</v>
+        <v>0.0973460976097769</v>
       </c>
     </row>
     <row r="46">
@@ -3333,19 +3333,19 @@
         <v>9866</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>5349</v>
+        <v>5663</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>15760</v>
+        <v>16148</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2043512804126602</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1107962855167894</v>
+        <v>0.1172967034000163</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3264269189583214</v>
+        <v>0.3344528014569528</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>15</v>
@@ -3354,19 +3354,19 @@
         <v>17006</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>10321</v>
+        <v>9655</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>25693</v>
+        <v>25607</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.181800171669979</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1103325188058472</v>
+        <v>0.1032092125007251</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2746645784691273</v>
+        <v>0.2737409364154137</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>26</v>
@@ -3375,19 +3375,19 @@
         <v>26873</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>19017</v>
+        <v>18120</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>37918</v>
+        <v>37429</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1894771116380039</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1340903685962622</v>
+        <v>0.1277663974719012</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2673578747492812</v>
+        <v>0.2639120786424853</v>
       </c>
     </row>
     <row r="48">
@@ -3404,19 +3404,19 @@
         <v>9341</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4753</v>
+        <v>4577</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>14949</v>
+        <v>15035</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.193469989114614</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.09844676631778938</v>
+        <v>0.09480373329484705</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3096148076528548</v>
+        <v>0.3114035883141558</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>34</v>
@@ -3425,19 +3425,19 @@
         <v>38389</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>27683</v>
+        <v>28318</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>48327</v>
+        <v>48416</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.4103748093278971</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2959315173124372</v>
+        <v>0.3027237021004471</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.5166193847950123</v>
+        <v>0.5175656552115371</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>44</v>
@@ -3446,19 +3446,19 @@
         <v>47729</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>36226</v>
+        <v>37203</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>59297</v>
+        <v>58298</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3365351900633657</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2554268571411798</v>
+        <v>0.2623134259988304</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.4180973500479824</v>
+        <v>0.4110581089986466</v>
       </c>
     </row>
     <row r="49">
@@ -3475,19 +3475,19 @@
         <v>3369</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>843</v>
+        <v>930</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>8657</v>
+        <v>7811</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.06977843012436839</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01747024838080122</v>
+        <v>0.01927245778077691</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1793055262008519</v>
+        <v>0.1617828534395197</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>9</v>
@@ -3496,19 +3496,19 @@
         <v>10022</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>5399</v>
+        <v>4581</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>17090</v>
+        <v>17262</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1071338722382753</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.05771207367531488</v>
+        <v>0.04897637917218103</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1826923815260866</v>
+        <v>0.1845307411802675</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>13</v>
@@ -3517,19 +3517,19 @@
         <v>13391</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>7530</v>
+        <v>7687</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>21376</v>
+        <v>21536</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.09441718101658243</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.0530951419818662</v>
+        <v>0.05420324375356561</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1507209027659802</v>
+        <v>0.1518472698523911</v>
       </c>
     </row>
     <row r="50">
@@ -3593,19 +3593,19 @@
         <v>20202</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>14454</v>
+        <v>13462</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>27104</v>
+        <v>26214</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.4184356282156413</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2993640252621798</v>
+        <v>0.2788363498317974</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5613747212923984</v>
+        <v>0.5429366021406882</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>11</v>
@@ -3614,19 +3614,19 @@
         <v>10754</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>5744</v>
+        <v>5841</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>18515</v>
+        <v>19438</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.1149566732011205</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.06140735859065852</v>
+        <v>0.06244028264201194</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.1979217269388628</v>
+        <v>0.2077958873347163</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>33</v>
@@ -3635,19 +3635,19 @@
         <v>30956</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>22257</v>
+        <v>22875</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>40800</v>
+        <v>42002</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.2182682108194892</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.1569314979607832</v>
+        <v>0.1612868423354065</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.287676493771675</v>
+        <v>0.2961525912775483</v>
       </c>
     </row>
     <row r="52">
@@ -3664,19 +3664,19 @@
         <v>3461</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>7605</v>
+        <v>7995</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.07168534256005003</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.018181376761014</v>
+        <v>0.01837348025444355</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1575053765667068</v>
+        <v>0.1655899125735037</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>10</v>
@@ -3685,19 +3685,19 @@
         <v>10799</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>5555</v>
+        <v>5244</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>18851</v>
+        <v>19030</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1154378850327528</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.05938493835998161</v>
+        <v>0.0560636822959904</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2015131229078345</v>
+        <v>0.2034329393930317</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>14</v>
@@ -3706,19 +3706,19 @@
         <v>14260</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>8609</v>
+        <v>7866</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>22645</v>
+        <v>23003</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1005434669425375</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.06070432082553867</v>
+        <v>0.05546334485986106</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1596703249052437</v>
+        <v>0.1621921427739912</v>
       </c>
     </row>
     <row r="53">
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5943</v>
+        <v>5543</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02523567182935053</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.128869290416451</v>
+        <v>0.1201969463803583</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5851</v>
+        <v>5696</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02052327264845091</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1031874403960979</v>
+        <v>0.1004534547547441</v>
       </c>
     </row>
     <row r="5">
@@ -4089,19 +4089,19 @@
         <v>3239</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6488</v>
+        <v>7187</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.305891436750106</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09898691435936062</v>
+        <v>0.09949673211442275</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6127301415343894</v>
+        <v>0.6787805176195537</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -4110,19 +4110,19 @@
         <v>8746</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4217</v>
+        <v>3456</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14846</v>
+        <v>15445</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1896738861195821</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09144873634567814</v>
+        <v>0.07494460960157544</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3219535312060588</v>
+        <v>0.3349314608337496</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -4131,19 +4131,19 @@
         <v>11985</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6500</v>
+        <v>6405</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18704</v>
+        <v>19645</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2113758441296905</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1146386722241555</v>
+        <v>0.1129556644573147</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3298650552716207</v>
+        <v>0.3464644350003797</v>
       </c>
     </row>
     <row r="6">
@@ -4207,19 +4207,19 @@
         <v>3113</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>958</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6323</v>
+        <v>6317</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2939757047452333</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09051687967046185</v>
+        <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.597150076021254</v>
+        <v>0.5966228441296719</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -4228,19 +4228,19 @@
         <v>14635</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8449</v>
+        <v>8973</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21886</v>
+        <v>21594</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3173663195016261</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1832169143076061</v>
+        <v>0.1945822865175747</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4746239426894943</v>
+        <v>0.4682909649047071</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -4249,19 +4249,19 @@
         <v>17747</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11145</v>
+        <v>11485</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25440</v>
+        <v>25776</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3129984582231891</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1965552847950776</v>
+        <v>0.2025543574191787</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4486714503488337</v>
+        <v>0.454599894589015</v>
       </c>
     </row>
     <row r="8">
@@ -4291,19 +4291,19 @@
         <v>7622</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3193</v>
+        <v>3265</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13290</v>
+        <v>14287</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1652976138915389</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06923365634905465</v>
+        <v>0.07079637248622586</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2882102932908525</v>
+        <v>0.3098271058646248</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -4312,19 +4312,19 @@
         <v>7622</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3208</v>
+        <v>3277</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14309</v>
+        <v>13288</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1344306591468989</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0565779537799452</v>
+        <v>0.05779009046234056</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2523645364356288</v>
+        <v>0.2343495142915387</v>
       </c>
     </row>
     <row r="9">
@@ -4354,19 +4354,19 @@
         <v>3387</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8880</v>
+        <v>9164</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07345336251361217</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02358466075920285</v>
+        <v>0.02369426719509504</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1925619462674504</v>
+        <v>0.1987238747358976</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -4375,19 +4375,19 @@
         <v>3387</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8825</v>
+        <v>9045</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05973700228812825</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01929474722544532</v>
+        <v>0.01930676107600157</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1556462645169361</v>
+        <v>0.159521767419924</v>
       </c>
     </row>
     <row r="10">
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5833</v>
+        <v>6044</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02516266165816539</v>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1264898566948013</v>
+        <v>0.1310726634617065</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -4441,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4730</v>
+        <v>5808</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02046389607787751</v>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08341548018924032</v>
+        <v>0.1024320894536244</v>
       </c>
     </row>
     <row r="11">
@@ -4467,7 +4467,7 @@
         <v>6384</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3180</v>
+        <v>3129</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>9533</v>
@@ -4476,10 +4476,10 @@
         <v>0.6029343020182282</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3003150465050661</v>
+        <v>0.2954819175418127</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9003396082250559</v>
+        <v>0.9003856120158077</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -4488,19 +4488,19 @@
         <v>12665</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7459</v>
+        <v>7053</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20196</v>
+        <v>19588</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2746422285863961</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1617636217325326</v>
+        <v>0.1529473712239211</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4379685947690581</v>
+        <v>0.4247933455994944</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -4509,19 +4509,19 @@
         <v>19048</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12443</v>
+        <v>12690</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27131</v>
+        <v>26879</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3359460570874746</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2194441920054353</v>
+        <v>0.2238005963984819</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4784896758923354</v>
+        <v>0.4740442295552921</v>
       </c>
     </row>
     <row r="12">
@@ -4551,19 +4551,19 @@
         <v>4299</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1149</v>
+        <v>1158</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9909</v>
+        <v>10397</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09323015543706613</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02491496858800172</v>
+        <v>0.02510355848069678</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2148766259393443</v>
+        <v>0.2254571984699608</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -4575,16 +4575,16 @@
         <v>1070</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9750</v>
+        <v>10565</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07582076324463002</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01886399751691743</v>
+        <v>0.01886342423092965</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1719475003442529</v>
+        <v>0.1863252388654557</v>
       </c>
     </row>
     <row r="13">
@@ -4699,19 +4699,19 @@
         <v>4489</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1134</v>
+        <v>1156</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10029</v>
+        <v>10000</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1385579295343219</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03499268291213447</v>
+        <v>0.03567210170600152</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3095715158058546</v>
+        <v>0.3086662670918185</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>12</v>
@@ -4720,19 +4720,19 @@
         <v>13172</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7653</v>
+        <v>7586</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>21781</v>
+        <v>20778</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2005987110388363</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1165414772538312</v>
+        <v>0.1155340293365239</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3317000219546879</v>
+        <v>0.3164333683539822</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>16</v>
@@ -4741,19 +4741,19 @@
         <v>17661</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>11031</v>
+        <v>11079</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>26883</v>
+        <v>26267</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1801019585269547</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1124934138540329</v>
+        <v>0.1129821904019354</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.274147881957412</v>
+        <v>0.2678606496176876</v>
       </c>
     </row>
     <row r="16">
@@ -4817,19 +4817,19 @@
         <v>8994</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4326</v>
+        <v>4173</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15021</v>
+        <v>14471</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2776307147704141</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1335167365302655</v>
+        <v>0.1288020422479869</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4636399044408761</v>
+        <v>0.4466783016312851</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -4838,19 +4838,19 @@
         <v>22341</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14738</v>
+        <v>14693</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30486</v>
+        <v>30191</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3402388248165635</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.224445325807767</v>
+        <v>0.2237542821700773</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4642662081317681</v>
+        <v>0.459782075055175</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>28</v>
@@ -4859,19 +4859,19 @@
         <v>31336</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21829</v>
+        <v>22185</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>41368</v>
+        <v>41127</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3195546408696029</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2226083090133969</v>
+        <v>0.2262330451286787</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4218583512188593</v>
+        <v>0.4194035058826306</v>
       </c>
     </row>
     <row r="18">
@@ -4888,19 +4888,19 @@
         <v>5320</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1900</v>
+        <v>1917</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10516</v>
+        <v>11138</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1642244734762547</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05864766107904727</v>
+        <v>0.05918472780322715</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3245848791999423</v>
+        <v>0.3438007558938637</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -4909,19 +4909,19 @@
         <v>18180</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11200</v>
+        <v>11654</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>26673</v>
+        <v>26492</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2768643684776211</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1705697395079481</v>
+        <v>0.1774731579021993</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4062073493881049</v>
+        <v>0.4034532986137895</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>21</v>
@@ -4930,19 +4930,19 @@
         <v>23500</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16543</v>
+        <v>15608</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>34667</v>
+        <v>33701</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2396509099295638</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1686970332430766</v>
+        <v>0.1591625882256409</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3535207567342068</v>
+        <v>0.3436733366505028</v>
       </c>
     </row>
     <row r="19">
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4248</v>
+        <v>5292</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0306809818782794</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1311241062751488</v>
+        <v>0.1633345033699285</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -4980,19 +4980,19 @@
         <v>3428</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9074</v>
+        <v>9135</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05219856670710751</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01619550112065558</v>
+        <v>0.01604409378865744</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1381822155579107</v>
+        <v>0.139120209862138</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -5001,19 +5001,19 @@
         <v>4422</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10309</v>
+        <v>11418</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04508968444942973</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01215326121356504</v>
+        <v>0.01216965305284019</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1051303652860157</v>
+        <v>0.1164332463406963</v>
       </c>
     </row>
     <row r="20">
@@ -5033,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5149</v>
+        <v>5111</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03079705425747317</v>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.158945644974048</v>
+        <v>0.1577477716624392</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5105</v>
+        <v>5053</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01017459135592098</v>
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05206135753504261</v>
+        <v>0.05152953583878256</v>
       </c>
     </row>
     <row r="21">
@@ -5093,19 +5093,19 @@
         <v>10719</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5467</v>
+        <v>5451</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17766</v>
+        <v>17149</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3308720487705051</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1687444805887188</v>
+        <v>0.1682410955879129</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5483872467794738</v>
+        <v>0.5293354745476018</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -5114,19 +5114,19 @@
         <v>6469</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2235</v>
+        <v>3112</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12236</v>
+        <v>13118</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09851427873987915</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03403128901367115</v>
+        <v>0.04739317644445329</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1863444240843714</v>
+        <v>0.1997687529843668</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>15</v>
@@ -5135,19 +5135,19 @@
         <v>17188</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9863</v>
+        <v>9978</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>26885</v>
+        <v>26102</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1752795868329738</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1005826823347287</v>
+        <v>0.1017508023574318</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2741688314370701</v>
+        <v>0.2661793529492361</v>
       </c>
     </row>
     <row r="22">
@@ -5164,19 +5164,19 @@
         <v>5408</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2104</v>
+        <v>1832</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10899</v>
+        <v>11128</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1669237808338782</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06494941273926161</v>
+        <v>0.05655911210675091</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3364184925636932</v>
+        <v>0.3434846225476795</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -5185,19 +5185,19 @@
         <v>8561</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4164</v>
+        <v>4190</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15248</v>
+        <v>15459</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1303769579862272</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06342031758687769</v>
+        <v>0.0638122194061293</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2322115640749289</v>
+        <v>0.2354258654288306</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -5206,19 +5206,19 @@
         <v>13969</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8299</v>
+        <v>8433</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22374</v>
+        <v>22653</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1424511318576406</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08463075176141246</v>
+        <v>0.08599490187409126</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2281593920756015</v>
+        <v>0.2310071328974672</v>
       </c>
     </row>
     <row r="23">
@@ -5299,19 +5299,19 @@
         <v>3195</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>936</v>
+        <v>1013</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7736</v>
+        <v>8730</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07571748385220897</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02218243665807901</v>
+        <v>0.02399656804593321</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1833411653900914</v>
+        <v>0.2068846291117956</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -5320,19 +5320,19 @@
         <v>3195</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8727</v>
+        <v>8199</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05687942388507338</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.017754723696571</v>
+        <v>0.01763178204316592</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1553701065875333</v>
+        <v>0.1459589552442969</v>
       </c>
     </row>
     <row r="25">
@@ -5362,19 +5362,19 @@
         <v>8576</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4100</v>
+        <v>4210</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15489</v>
+        <v>14888</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2032310713345424</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09715373869508044</v>
+        <v>0.09976729043018176</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3670677697778951</v>
+        <v>0.3528110459459103</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -5383,19 +5383,19 @@
         <v>8576</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4213</v>
+        <v>4252</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15172</v>
+        <v>15043</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1526683886593226</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07500818017711791</v>
+        <v>0.07568965092522165</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2700962363617088</v>
+        <v>0.2678058026654379</v>
       </c>
     </row>
     <row r="26">
@@ -5459,19 +5459,19 @@
         <v>3133</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>851</v>
+        <v>903</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7588</v>
+        <v>7703</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2242011717676577</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06088848374455431</v>
+        <v>0.06460547265666296</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5429366770663694</v>
+        <v>0.5512207819183094</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>8</v>
@@ -5480,19 +5480,19 @@
         <v>8560</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>4091</v>
+        <v>4194</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>14790</v>
+        <v>15377</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2028629790018266</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.09693838219485723</v>
+        <v>0.0993791488143355</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.350490932704434</v>
+        <v>0.3644205246008194</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>11</v>
@@ -5501,19 +5501,19 @@
         <v>11693</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6050</v>
+        <v>6889</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>18779</v>
+        <v>19845</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2081717945416776</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1076962816805346</v>
+        <v>0.1226326302258895</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3343104927613951</v>
+        <v>0.353282150406573</v>
       </c>
     </row>
     <row r="28">
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9468</v>
+        <v>9111</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2383119692767631</v>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6775252352574731</v>
+        <v>0.6519194673919253</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>14</v>
@@ -5551,19 +5551,19 @@
         <v>16432</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9714</v>
+        <v>10359</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>23769</v>
+        <v>23117</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.389411395032666</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2301942188594243</v>
+        <v>0.245489858481162</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5632789814993782</v>
+        <v>0.5478241291676481</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>16</v>
@@ -5572,19 +5572,19 @@
         <v>19762</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12615</v>
+        <v>11583</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>28472</v>
+        <v>26909</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3518187559409431</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2245800180066963</v>
+        <v>0.2062050918767868</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5068724368731156</v>
+        <v>0.4790553166282864</v>
       </c>
     </row>
     <row r="29">
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4869</v>
+        <v>4706</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0759710991183704</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3483786797688709</v>
+        <v>0.3367168007819121</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5626</v>
+        <v>5164</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02321565632541527</v>
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1333281547994618</v>
+        <v>0.1223722874288969</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6612</v>
+        <v>6388</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03634089694839045</v>
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1177090962306661</v>
+        <v>0.1137230172729679</v>
       </c>
     </row>
     <row r="30">
@@ -5719,19 +5719,19 @@
         <v>6450</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2261</v>
+        <v>2363</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>10953</v>
+        <v>10839</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4615157598372088</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1617587491336569</v>
+        <v>0.169107405236489</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7837544838406345</v>
+        <v>0.7756228862111429</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -5740,19 +5740,19 @@
         <v>5407</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11000</v>
+        <v>10784</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1281372601149912</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04896251054952252</v>
+        <v>0.0485593674868381</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2606882258784479</v>
+        <v>0.255556416881027</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>10</v>
@@ -5761,19 +5761,19 @@
         <v>11857</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>6450</v>
+        <v>6407</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>19829</v>
+        <v>20011</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2110798494617133</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1148287798469539</v>
+        <v>0.1140666266496509</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3530062163815789</v>
+        <v>0.3562473212138949</v>
       </c>
     </row>
     <row r="32">
@@ -5803,19 +5803,19 @@
         <v>7553</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3110</v>
+        <v>3077</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>14090</v>
+        <v>14216</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1789987942647321</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07370398229935941</v>
+        <v>0.07292107275715863</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3339056532343633</v>
+        <v>0.336895477150048</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -5824,19 +5824,19 @@
         <v>7553</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2838</v>
+        <v>3106</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>14377</v>
+        <v>15072</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1344649581036455</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0505178493903329</v>
+        <v>0.05529222124308881</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2559447885455126</v>
+        <v>0.268323192331492</v>
       </c>
     </row>
     <row r="33">
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4805</v>
+        <v>5324</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02099662549994285</v>
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09371842261124924</v>
+        <v>0.1038385035511712</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5178</v>
+        <v>5572</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01478422597006712</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.07111328092084178</v>
+        <v>0.07652545728071407</v>
       </c>
     </row>
     <row r="35">
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5471</v>
+        <v>6014</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05045940466769308</v>
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2539188829097106</v>
+        <v>0.2791415038080782</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>10</v>
@@ -5988,19 +5988,19 @@
         <v>10352</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5067</v>
+        <v>5125</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>16783</v>
+        <v>16810</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2019053233642824</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09882434958625902</v>
+        <v>0.09995386201168582</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3273249252280641</v>
+        <v>0.3278688547952112</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>11</v>
@@ -6009,19 +6009,19 @@
         <v>11439</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5937</v>
+        <v>6239</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>18492</v>
+        <v>19006</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1570960965618684</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08153248951914399</v>
+        <v>0.08568366994380093</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2539473569779123</v>
+        <v>0.2610037428780904</v>
       </c>
     </row>
     <row r="36">
@@ -6085,19 +6085,19 @@
         <v>5050</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1866</v>
+        <v>1876</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>9561</v>
+        <v>10104</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2343909658829709</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08660965470394504</v>
+        <v>0.08707610088597914</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4437542542849675</v>
+        <v>0.4689663849330004</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>15</v>
@@ -6106,19 +6106,19 @@
         <v>15398</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>9092</v>
+        <v>9392</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>21890</v>
+        <v>22684</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3003204555467344</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.177325388311972</v>
+        <v>0.1831789378942778</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4269459952109238</v>
+        <v>0.4424309417510976</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>20</v>
@@ -6127,19 +6127,19 @@
         <v>20448</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>13582</v>
+        <v>12811</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>29171</v>
+        <v>29673</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2808134956977231</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1865238108932774</v>
+        <v>0.1759321512644449</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4006026397484101</v>
+        <v>0.4075013680233657</v>
       </c>
     </row>
     <row r="38">
@@ -6156,19 +6156,19 @@
         <v>7314</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3029</v>
+        <v>3094</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>13489</v>
+        <v>12933</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3394905316804324</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1405785980210353</v>
+        <v>0.1436209027682006</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6260954295246633</v>
+        <v>0.6002573360370556</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>15</v>
@@ -6177,19 +6177,19 @@
         <v>15417</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>9249</v>
+        <v>9360</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>21889</v>
+        <v>22163</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3006889910320897</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.180389806767597</v>
+        <v>0.182550854861194</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4269258849583438</v>
+        <v>0.4322583608761457</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>21</v>
@@ -6198,19 +6198,19 @@
         <v>22731</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>15721</v>
+        <v>14962</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>31559</v>
+        <v>31193</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.312169439301402</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.215891855935817</v>
+        <v>0.2054750336022869</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4334058560397202</v>
+        <v>0.42838053041935</v>
       </c>
     </row>
     <row r="39">
@@ -6240,19 +6240,19 @@
         <v>5658</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>2131</v>
+        <v>2705</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>11363</v>
+        <v>11463</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1103460340169405</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.04155892853210492</v>
+        <v>0.05276060851100901</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2216301860454989</v>
+        <v>0.223574371127633</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>6</v>
@@ -6261,19 +6261,19 @@
         <v>5658</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1946</v>
+        <v>1933</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>11357</v>
+        <v>11373</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.07769728053737024</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02672499172410644</v>
+        <v>0.02655243018028696</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1559687413232124</v>
+        <v>0.1561915666897711</v>
       </c>
     </row>
     <row r="40">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>5574</v>
+        <v>5499</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02144579300298983</v>
@@ -6315,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1087207759733031</v>
+        <v>0.1072545448259548</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1</v>
@@ -6327,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>6799</v>
+        <v>5248</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01510049554697963</v>
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0933681313767931</v>
+        <v>0.07207252201573308</v>
       </c>
     </row>
     <row r="41">
@@ -6353,19 +6353,19 @@
         <v>10085</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4761</v>
+        <v>5354</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>15339</v>
+        <v>15734</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.4680984241751901</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2209916229346431</v>
+        <v>0.2484924479578907</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.7119659372515358</v>
+        <v>0.7302763906637111</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>5</v>
@@ -6374,19 +6374,19 @@
         <v>5164</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2026</v>
+        <v>1975</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>11595</v>
+        <v>10407</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1007203431661722</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03951738714898229</v>
+        <v>0.03852524773979264</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2261387618235167</v>
+        <v>0.2029680196493951</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>13</v>
@@ -6395,19 +6395,19 @@
         <v>15249</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>8203</v>
+        <v>8327</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>23965</v>
+        <v>23398</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2094187346173739</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1126567771243334</v>
+        <v>0.1143497417648059</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3291145155548332</v>
+        <v>0.321330220480867</v>
       </c>
     </row>
     <row r="42">
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6464</v>
+        <v>6495</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.0938229540489833</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3000182924638217</v>
+        <v>0.3014800417373777</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>8</v>
@@ -6445,19 +6445,19 @@
         <v>9416</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>4352</v>
+        <v>4403</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>16408</v>
+        <v>16226</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1836448152835279</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.08488930242717964</v>
+        <v>0.08587800763921595</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3200165385420429</v>
+        <v>0.3164593409948365</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>10</v>
@@ -6466,19 +6466,19 @@
         <v>11437</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6296</v>
+        <v>6424</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>19737</v>
+        <v>19838</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.157068673869396</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.08646353431533102</v>
+        <v>0.08822627283751103</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2710513537041422</v>
+        <v>0.2724426802233312</v>
       </c>
     </row>
     <row r="43">
@@ -6559,19 +6559,19 @@
         <v>5435</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2136</v>
+        <v>1976</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>11934</v>
+        <v>11896</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.02648171751807309</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01040494868482972</v>
+        <v>0.009626596344775619</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.05814385693959951</v>
+        <v>0.05795821696181744</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>5</v>
@@ -6580,19 +6580,19 @@
         <v>5435</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2129</v>
+        <v>2090</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>12360</v>
+        <v>11859</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01915504669091564</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.007504810778422361</v>
+        <v>0.007367373766466899</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.04355894820224604</v>
+        <v>0.04179232966067827</v>
       </c>
     </row>
     <row r="45">
@@ -6609,19 +6609,19 @@
         <v>8815</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>4433</v>
+        <v>3809</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>16717</v>
+        <v>15906</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.1122831961153217</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.05646774935398383</v>
+        <v>0.04852351173616781</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2129467556805692</v>
+        <v>0.2026088659511811</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>38</v>
@@ -6630,19 +6630,19 @@
         <v>40846</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>30110</v>
+        <v>29788</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>54576</v>
+        <v>52982</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1990118041695196</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1467034755194083</v>
+        <v>0.1451355415317845</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.2659074905461713</v>
+        <v>0.2581401485362781</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>46</v>
@@ -6651,19 +6651,19 @@
         <v>49661</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>37511</v>
+        <v>37746</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>63931</v>
+        <v>65453</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1750166851944381</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1321976110607689</v>
+        <v>0.1330239606952352</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2253073350252393</v>
+        <v>0.2306721762522151</v>
       </c>
     </row>
     <row r="46">
@@ -6727,19 +6727,19 @@
         <v>20290</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>12117</v>
+        <v>13724</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>28998</v>
+        <v>29980</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2584571864598823</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1543425693935445</v>
+        <v>0.1748232253608195</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3693727612120711</v>
+        <v>0.3818927642927004</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>57</v>
@@ -6748,19 +6748,19 @@
         <v>60934</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>48329</v>
+        <v>48778</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>75320</v>
+        <v>74875</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2968848224592391</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2354706799449807</v>
+        <v>0.2376589318981768</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3669746849415855</v>
+        <v>0.364809835805301</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>76</v>
@@ -6769,19 +6769,19 @@
         <v>81224</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>65642</v>
+        <v>65087</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>97093</v>
+        <v>96671</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2862530860757903</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2313366517240805</v>
+        <v>0.229382702582463</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3421768818472574</v>
+        <v>0.340689075035521</v>
       </c>
     </row>
     <row r="48">
@@ -6798,19 +6798,19 @@
         <v>15965</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>8981</v>
+        <v>8549</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>25548</v>
+        <v>24337</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2033637550997546</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1144051153333286</v>
+        <v>0.1089016391389287</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.325434690684985</v>
+        <v>0.3100021492943594</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>52</v>
@@ -6819,19 +6819,19 @@
         <v>57651</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>45678</v>
+        <v>45488</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>71905</v>
+        <v>72089</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2808887325568112</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.22255263345774</v>
+        <v>0.2216274178866032</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3503392074315798</v>
+        <v>0.3512356194337084</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>65</v>
@@ -6840,19 +6840,19 @@
         <v>73616</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>59482</v>
+        <v>56592</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>91525</v>
+        <v>89886</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.259439973037229</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2096272009342411</v>
+        <v>0.1994443833652634</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3225555577086267</v>
+        <v>0.3167780401586638</v>
       </c>
     </row>
     <row r="49">
@@ -6872,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>7413</v>
+        <v>6366</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.02618538529871148</v>
@@ -6881,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.09442908142068017</v>
+        <v>0.08109616207529433</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>13</v>
@@ -6890,19 +6890,19 @@
         <v>13452</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>7635</v>
+        <v>7468</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>21989</v>
+        <v>22350</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.06554100453484765</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.03719940870885177</v>
+        <v>0.03638564029482375</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1071349755720877</v>
+        <v>0.1088952952503818</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>15</v>
@@ -6911,19 +6911,19 @@
         <v>15508</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>8826</v>
+        <v>8925</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>24325</v>
+        <v>24093</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.05465252393892985</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.031105604697625</v>
+        <v>0.03145259013445022</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.08572784801071175</v>
+        <v>0.08491042897157507</v>
       </c>
     </row>
     <row r="50">
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>6147</v>
+        <v>4452</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01270912315344844</v>
@@ -6952,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.07829669933265754</v>
+        <v>0.05671399783699669</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>2</v>
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>6872</v>
+        <v>6772</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01101067457895673</v>
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.03348057238624452</v>
+        <v>0.03299347804590688</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>3</v>
@@ -6982,19 +6982,19 @@
         <v>3258</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>0</v>
+        <v>979</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>8246</v>
+        <v>8813</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.01148058268116584</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0</v>
+        <v>0.003449145999465008</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.02906178828018855</v>
+        <v>0.03105962581114879</v>
       </c>
     </row>
     <row r="51">
@@ -7011,19 +7011,19 @@
         <v>33638</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>24573</v>
+        <v>23900</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>43297</v>
+        <v>43723</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.4284824579228118</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.3130141429743875</v>
+        <v>0.3044409036687398</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5515191487009463</v>
+        <v>0.5569506016942597</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>27</v>
@@ -7032,19 +7032,19 @@
         <v>29704</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>20472</v>
+        <v>20512</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>41587</v>
+        <v>41476</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.144726567381399</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.09974279094295731</v>
+        <v>0.09993859203634255</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.2026236624223709</v>
+        <v>0.2020823207788786</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>55</v>
@@ -7053,19 +7053,19 @@
         <v>63342</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>49424</v>
+        <v>47261</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>79588</v>
+        <v>78376</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.2232330314672347</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.1741814130662922</v>
+        <v>0.166558726707617</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.2804878023118416</v>
+        <v>0.276216665746826</v>
       </c>
     </row>
     <row r="52">
@@ -7082,19 +7082,19 @@
         <v>7429</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>3189</v>
+        <v>3182</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>14067</v>
+        <v>14551</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.09463356711509734</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.04062427276805123</v>
+        <v>0.04053167540858277</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1791820635544638</v>
+        <v>0.1853536905330833</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>26</v>
@@ -7103,19 +7103,19 @@
         <v>29829</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>20518</v>
+        <v>19684</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>41730</v>
+        <v>41665</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1453340904023522</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.09997042115331738</v>
+        <v>0.09590479593088026</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.203319624188977</v>
+        <v>0.203003547946867</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>33</v>
@@ -7124,19 +7124,19 @@
         <v>37258</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>26964</v>
+        <v>26208</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>50391</v>
+        <v>49401</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1313068263233954</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.09502748119299462</v>
+        <v>0.09236285276493465</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1775890391609752</v>
+        <v>0.1741008541592499</v>
       </c>
     </row>
     <row r="53">
@@ -7460,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5850</v>
+        <v>4904</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02468884499846316</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1469217982476456</v>
+        <v>0.1231511313560654</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -7481,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5099</v>
+        <v>4985</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01672164399562762</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08673361738772765</v>
+        <v>0.0847884782029328</v>
       </c>
     </row>
     <row r="5">
@@ -7507,19 +7507,19 @@
         <v>3407</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>844</v>
+        <v>861</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8404</v>
+        <v>7680</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1795591683330326</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04448457616208317</v>
+        <v>0.04538535302628617</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4429319329007162</v>
+        <v>0.4047917493437782</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -7528,19 +7528,19 @@
         <v>3500</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1104</v>
+        <v>1133</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8268</v>
+        <v>9304</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08789009085803098</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02771909565024544</v>
+        <v>0.02846208251541709</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2076243044999496</v>
+        <v>0.2336427232663988</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -7549,19 +7549,19 @@
         <v>6906</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2730</v>
+        <v>2839</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12663</v>
+        <v>13133</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1174721132666655</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04643644631365901</v>
+        <v>0.04828851704028324</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2153926906059981</v>
+        <v>0.2233860350036179</v>
       </c>
     </row>
     <row r="6">
@@ -7625,19 +7625,19 @@
         <v>3505</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>863</v>
+        <v>824</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7167</v>
+        <v>7212</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.18475165896062</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04547267351825676</v>
+        <v>0.0434269289118058</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3777618544218059</v>
+        <v>0.380116162423331</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -7646,19 +7646,19 @@
         <v>14233</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8622</v>
+        <v>8287</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21679</v>
+        <v>20814</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3574357018079733</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2165179025533221</v>
+        <v>0.2081164990114852</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5444166412392982</v>
+        <v>0.5226978710886779</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -7667,19 +7667,19 @@
         <v>17738</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10933</v>
+        <v>11311</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25977</v>
+        <v>26000</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3017097867466259</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.18596391591622</v>
+        <v>0.1923896099952185</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4418459883535493</v>
+        <v>0.4422376333224501</v>
       </c>
     </row>
     <row r="8">
@@ -7696,19 +7696,19 @@
         <v>4341</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1643</v>
+        <v>1582</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8719</v>
+        <v>8214</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2287919492016687</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0865724136696147</v>
+        <v>0.08340293010782143</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4595214556749208</v>
+        <v>0.4329356895988589</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -7717,19 +7717,19 @@
         <v>4641</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1172</v>
+        <v>1200</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10382</v>
+        <v>10374</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1165599244967001</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02944342857224236</v>
+        <v>0.03013713964870659</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2607341301690204</v>
+        <v>0.2605175480563123</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -7738,19 +7738,19 @@
         <v>8982</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4418</v>
+        <v>4578</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15379</v>
+        <v>15914</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1527777021949015</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07515169901037327</v>
+        <v>0.07787152734635427</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2615773689668188</v>
+        <v>0.2706752166146175</v>
       </c>
     </row>
     <row r="9">
@@ -7780,19 +7780,19 @@
         <v>6375</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2095</v>
+        <v>2847</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12246</v>
+        <v>12645</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1600877019233428</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0526046964261184</v>
+        <v>0.07150585002826861</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3075343581017839</v>
+        <v>0.3175500630877793</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -7801,19 +7801,19 @@
         <v>6375</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2787</v>
+        <v>2305</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13035</v>
+        <v>13250</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1084266825688655</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04740009775332234</v>
+        <v>0.03921393152475377</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2217170420474362</v>
+        <v>0.2253734100961726</v>
       </c>
     </row>
     <row r="10">
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6076</v>
+        <v>6276</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03026180359417121</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1525754481981331</v>
+        <v>0.157615788964042</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5942</v>
+        <v>6106</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02049618385950556</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1010697252162944</v>
+        <v>0.103850118198465</v>
       </c>
     </row>
     <row r="11">
@@ -7893,19 +7893,19 @@
         <v>11329</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7351</v>
+        <v>7317</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15156</v>
+        <v>14872</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5970873046961439</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3874405592717891</v>
+        <v>0.3856723259437791</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7987953891492843</v>
+        <v>0.7838610120816405</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -7914,19 +7914,19 @@
         <v>6961</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2911</v>
+        <v>3009</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12735</v>
+        <v>12756</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1748076584482195</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07309777623536683</v>
+        <v>0.07555529106801505</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3198257252930828</v>
+        <v>0.3203445943991976</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>20</v>
@@ -7935,19 +7935,19 @@
         <v>18289</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12449</v>
+        <v>11549</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>26114</v>
+        <v>25462</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3110791940859916</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2117526907938338</v>
+        <v>0.1964443766299185</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4441780017783893</v>
+        <v>0.4330906888120087</v>
       </c>
     </row>
     <row r="12">
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5292</v>
+        <v>5219</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09155012152956261</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2789344871555361</v>
+        <v>0.2750573546209743</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -7985,19 +7985,19 @@
         <v>6701</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2375</v>
+        <v>2338</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13368</v>
+        <v>13416</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1682808688742081</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05963142031963211</v>
+        <v>0.05870284216802883</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.335707011947159</v>
+        <v>0.3369054404685708</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -8006,19 +8006,19 @@
         <v>8438</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3593</v>
+        <v>3527</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16259</v>
+        <v>15485</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1435195125924285</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06110883140187454</v>
+        <v>0.05998762378964512</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.276554681694529</v>
+        <v>0.2633844738746406</v>
       </c>
     </row>
     <row r="13">
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6189</v>
+        <v>5994</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02891048366205861</v>
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1507177373473156</v>
+        <v>0.1459724702350264</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6778</v>
+        <v>6875</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01960246508557384</v>
@@ -8132,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1119110717425859</v>
+        <v>0.1135159085019474</v>
       </c>
     </row>
     <row r="15">
@@ -8162,19 +8162,19 @@
         <v>3889</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1187</v>
+        <v>1194</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9373</v>
+        <v>9684</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0946927467719109</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0289124887302072</v>
+        <v>0.02907363697685818</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2282543751920732</v>
+        <v>0.2358229769441179</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -8183,19 +8183,19 @@
         <v>3889</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1177</v>
+        <v>1195</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10204</v>
+        <v>10117</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06420547245598361</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01944154744167966</v>
+        <v>0.01973154948828056</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1684871849902408</v>
+        <v>0.1670446355262412</v>
       </c>
     </row>
     <row r="16">
@@ -8259,19 +8259,19 @@
         <v>6118</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2581</v>
+        <v>2729</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10437</v>
+        <v>10465</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3137634683885437</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1323487699689438</v>
+        <v>0.1399619944715119</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5352501474569795</v>
+        <v>0.5367042155961465</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -8280,19 +8280,19 @@
         <v>4884</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1340</v>
+        <v>1273</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11535</v>
+        <v>11422</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1189386930804721</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03264258228772013</v>
+        <v>0.03100767694344737</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2809038415138211</v>
+        <v>0.2781435816542966</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -8301,19 +8301,19 @@
         <v>11002</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5461</v>
+        <v>5697</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17643</v>
+        <v>18763</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1816644727292887</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09016951697799096</v>
+        <v>0.09405972036832658</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2913046676246664</v>
+        <v>0.3098043874938248</v>
       </c>
     </row>
     <row r="18">
@@ -8330,19 +8330,19 @@
         <v>2500</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6625</v>
+        <v>6604</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1282314902529505</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03853248997030161</v>
+        <v>0.03963716100019372</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3397526110670018</v>
+        <v>0.3387081016425011</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -8351,19 +8351,19 @@
         <v>16087</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9662</v>
+        <v>9422</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23013</v>
+        <v>23611</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3917401873549991</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2352791181579289</v>
+        <v>0.2294328655964721</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.56040937152751</v>
+        <v>0.5749625182861745</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>16</v>
@@ -8372,19 +8372,19 @@
         <v>18587</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11816</v>
+        <v>11189</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>27024</v>
+        <v>26179</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3069009340114071</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1951059526548295</v>
+        <v>0.1847503816286693</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4462022094443923</v>
+        <v>0.4322519960331638</v>
       </c>
     </row>
     <row r="19">
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5461</v>
+        <v>5216</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08910895313236877</v>
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.280077427336253</v>
+        <v>0.2675238500024034</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -8422,19 +8422,19 @@
         <v>6150</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2387</v>
+        <v>2308</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12723</v>
+        <v>12079</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1497615690439603</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05812632161430917</v>
+        <v>0.0562000930547866</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3098300789377307</v>
+        <v>0.2941475727467919</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -8443,19 +8443,19 @@
         <v>7887</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3299</v>
+        <v>3670</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15292</v>
+        <v>15489</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1302338543845754</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05446628283036611</v>
+        <v>0.06059329242638305</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2524945625101938</v>
+        <v>0.2557435572180204</v>
       </c>
     </row>
     <row r="20">
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6400</v>
+        <v>6420</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03066877840868973</v>
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1558397143437725</v>
+        <v>0.1563442654799416</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -8509,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7148</v>
+        <v>6886</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0207946593007892</v>
@@ -8518,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1180243913224358</v>
+        <v>0.1136942217619105</v>
       </c>
     </row>
     <row r="21">
@@ -8535,19 +8535,19 @@
         <v>4907</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1756</v>
+        <v>1742</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9901</v>
+        <v>9102</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2516725959443606</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09006897394818437</v>
+        <v>0.08931577712108825</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5077830498323297</v>
+        <v>0.4667976983993156</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -8556,19 +8556,19 @@
         <v>6267</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2069</v>
+        <v>2034</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14198</v>
+        <v>13355</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.15260876207662</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05038344485381987</v>
+        <v>0.04952956479546599</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3457421132251591</v>
+        <v>0.3252142323154771</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -8577,19 +8577,19 @@
         <v>11174</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5542</v>
+        <v>5261</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>20185</v>
+        <v>20747</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1845033514815304</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09150311984246219</v>
+        <v>0.08686042491662999</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3332755495506856</v>
+        <v>0.3425645878835613</v>
       </c>
     </row>
     <row r="22">
@@ -8606,19 +8606,19 @@
         <v>4236</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1604</v>
+        <v>1644</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8322</v>
+        <v>8710</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2172234922817765</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08225724541325674</v>
+        <v>0.0843119873368096</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4268105189492119</v>
+        <v>0.446671951731004</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -8630,7 +8630,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8069</v>
+        <v>8533</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06216362660644951</v>
@@ -8639,7 +8639,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1964901111805145</v>
+        <v>0.2077878373959554</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -8648,19 +8648,19 @@
         <v>6788</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2867</v>
+        <v>2861</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12985</v>
+        <v>13724</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1120866969723503</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0473405394645431</v>
+        <v>0.04724474191946115</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2144035973957628</v>
+        <v>0.2265967937339954</v>
       </c>
     </row>
     <row r="23">
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4168</v>
+        <v>4161</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04603609854175573</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2370769304921616</v>
+        <v>0.2366808573300394</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -8799,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8560</v>
+        <v>9875</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08472148277387885</v>
@@ -8808,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2442350991128655</v>
+        <v>0.2817455459170621</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -8817,19 +8817,19 @@
         <v>3779</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>825</v>
+        <v>803</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>9902</v>
+        <v>9832</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07179862972980766</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01567253457254468</v>
+        <v>0.01526384146017023</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1881476336443392</v>
+        <v>0.1868276515137805</v>
       </c>
     </row>
     <row r="26">
@@ -8896,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4726</v>
+        <v>3821</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04943397758573979</v>
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2688445459756371</v>
+        <v>0.2173735940260329</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -8914,19 +8914,19 @@
         <v>7436</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3528</v>
+        <v>2574</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>14138</v>
+        <v>14149</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.212177995244002</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1006599718188707</v>
+        <v>0.07343662919614555</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4034002965574608</v>
+        <v>0.4037065209771719</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>7</v>
@@ -8935,19 +8935,19 @@
         <v>8305</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>3860</v>
+        <v>3593</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>15236</v>
+        <v>15840</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1578133542886438</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07333778523656398</v>
+        <v>0.06827673525407719</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2895117876210839</v>
+        <v>0.3009767615503001</v>
       </c>
     </row>
     <row r="28">
@@ -8964,19 +8964,19 @@
         <v>4384</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1532</v>
+        <v>1617</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8645</v>
+        <v>8853</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2493837377749201</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08715012109503437</v>
+        <v>0.09198771687968395</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4917319765194987</v>
+        <v>0.5036057409555489</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>11</v>
@@ -8985,19 +8985,19 @@
         <v>14500</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8223</v>
+        <v>8321</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>21214</v>
+        <v>21452</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4137223155129048</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2346274387964907</v>
+        <v>0.2374061659105644</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6052933756419832</v>
+        <v>0.6120816774137909</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>16</v>
@@ -9006,19 +9006,19 @@
         <v>18884</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12232</v>
+        <v>11843</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>26946</v>
+        <v>26922</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3588250117447243</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2324156249965835</v>
+        <v>0.2250314991372227</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.512017914376059</v>
+        <v>0.5115503625843457</v>
       </c>
     </row>
     <row r="29">
@@ -9035,19 +9035,19 @@
         <v>4094</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9247</v>
+        <v>9111</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2328640436458313</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04688076704380371</v>
+        <v>0.04766193642000183</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5259736715419502</v>
+        <v>0.5182839019656506</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -9059,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5760</v>
+        <v>4409</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0291538976318261</v>
@@ -9068,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1643377703578992</v>
+        <v>0.1257855069497269</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -9077,19 +9077,19 @@
         <v>5116</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1522</v>
+        <v>1741</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11539</v>
+        <v>12703</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09720327423176991</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02892934593115849</v>
+        <v>0.0330890962341739</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2192642104555579</v>
+        <v>0.241372943434141</v>
       </c>
     </row>
     <row r="30">
@@ -9153,19 +9153,19 @@
         <v>8291</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4241</v>
+        <v>3974</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>12609</v>
+        <v>12447</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4716253196773119</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2412681635587044</v>
+        <v>0.2260728494454715</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7172575891067677</v>
+        <v>0.7079941357123223</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -9174,19 +9174,19 @@
         <v>5394</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2032</v>
+        <v>2006</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11542</v>
+        <v>10837</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1539153984392527</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05798170014302517</v>
+        <v>0.05724814613512632</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3293070076570478</v>
+        <v>0.3091979671363599</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>13</v>
@@ -9195,19 +9195,19 @@
         <v>13686</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>8039</v>
+        <v>7855</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>21747</v>
+        <v>21498</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2600464012533236</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1527544041939395</v>
+        <v>0.1492520944186134</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4132174373095409</v>
+        <v>0.4084933312306744</v>
       </c>
     </row>
     <row r="32">
@@ -9227,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5573</v>
+        <v>5084</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.101281160308758</v>
@@ -9236,7 +9236,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3170003531617228</v>
+        <v>0.2891920873036541</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -9245,19 +9245,19 @@
         <v>6446</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2529</v>
+        <v>2475</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13218</v>
+        <v>13013</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1839174576736564</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07214652416621586</v>
+        <v>0.0706094883908647</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3771526354506056</v>
+        <v>0.3712948739586148</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -9266,19 +9266,19 @@
         <v>8226</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15391</v>
+        <v>15019</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.156312801596181</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06665761370625825</v>
+        <v>0.06668400275537453</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.292445675691298</v>
+        <v>0.2853882207336324</v>
       </c>
     </row>
     <row r="33">
@@ -9362,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6180</v>
+        <v>5025</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0217190379378742</v>
@@ -9371,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.110642391606049</v>
+        <v>0.08995760117788484</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -9383,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6138</v>
+        <v>5504</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01687242382015718</v>
@@ -9392,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08536879869186409</v>
+        <v>0.07654524164064633</v>
       </c>
     </row>
     <row r="35">
@@ -9425,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6772</v>
+        <v>5878</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02301451778369279</v>
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1212438826498828</v>
+        <v>0.1052416895652912</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1</v>
@@ -9446,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>7021</v>
+        <v>6752</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01787881669407942</v>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0976488148013184</v>
+        <v>0.09391436763729626</v>
       </c>
     </row>
     <row r="36">
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3286</v>
+        <v>3329</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04586842729284799</v>
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2048199570209081</v>
+        <v>0.2074785567525387</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3498</v>
+        <v>4222</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01023556236288578</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04865189285896923</v>
+        <v>0.05872255577178301</v>
       </c>
     </row>
     <row r="37">
@@ -9538,7 +9538,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5756</v>
+        <v>5723</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1135608261663719</v>
@@ -9547,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3587203097995673</v>
+        <v>0.3566737328834265</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>12</v>
@@ -9556,19 +9556,19 @@
         <v>16854</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>9510</v>
+        <v>9390</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>25060</v>
+        <v>25302</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3017376492451662</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1702564581874608</v>
+        <v>0.1681174065918061</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4486616626421985</v>
+        <v>0.4529940292849655</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>14</v>
@@ -9577,19 +9577,19 @@
         <v>18676</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>11345</v>
+        <v>11521</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>29043</v>
+        <v>29616</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2597458975861106</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1577915776323802</v>
+        <v>0.1602365529246624</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.403937767277941</v>
+        <v>0.4119060916068797</v>
       </c>
     </row>
     <row r="38">
@@ -9609,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>4295</v>
+        <v>3253</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.04619129980408343</v>
@@ -9618,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2676621011914979</v>
+        <v>0.2027218917201464</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>8</v>
@@ -9627,19 +9627,19 @@
         <v>10827</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>5234</v>
+        <v>5357</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>18716</v>
+        <v>19116</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.193831881605521</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.09370547014570446</v>
+        <v>0.09591478777146806</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3350779631737532</v>
+        <v>0.3422418031157953</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>9</v>
@@ -9648,19 +9648,19 @@
         <v>11568</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>5659</v>
+        <v>5919</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>19655</v>
+        <v>19992</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1608858123480519</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.07870284236486466</v>
+        <v>0.08232704991144155</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2733647480284859</v>
+        <v>0.2780560154045184</v>
       </c>
     </row>
     <row r="39">
@@ -9690,19 +9690,19 @@
         <v>15066</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>8935</v>
+        <v>8055</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>24718</v>
+        <v>22846</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2697343231720773</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1599722375642129</v>
+        <v>0.1442090227787831</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.4425269673513172</v>
+        <v>0.4090152476710971</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>12</v>
@@ -9711,19 +9711,19 @@
         <v>15066</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>8849</v>
+        <v>8169</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>24895</v>
+        <v>23410</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2095429748048951</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1230796333940292</v>
+        <v>0.1136129157528907</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.3462511665878573</v>
+        <v>0.3255934036133573</v>
       </c>
     </row>
     <row r="40">
@@ -9743,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6483</v>
+        <v>6817</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1303331429954706</v>
@@ -9752,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4040807590142322</v>
+        <v>0.4248412431374543</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -9777,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>7793</v>
+        <v>7533</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02908390568012907</v>
@@ -9786,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1083895271071799</v>
+        <v>0.1047766496165768</v>
       </c>
     </row>
     <row r="41">
@@ -9803,19 +9803,19 @@
         <v>9453</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5709</v>
+        <v>5168</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>13357</v>
+        <v>12720</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.5891594722207053</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3558257594388659</v>
+        <v>0.3220973568600184</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.8324817897750378</v>
+        <v>0.7927736999366278</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>4</v>
@@ -9824,19 +9824,19 @@
         <v>5571</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1925</v>
+        <v>1699</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>13093</v>
+        <v>12782</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0997327106436274</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03445526386014147</v>
+        <v>0.03041531082192648</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2344035364209573</v>
+        <v>0.2288440004441354</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>14</v>
@@ -9845,19 +9845,19 @@
         <v>15023</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>8880</v>
+        <v>8430</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>24076</v>
+        <v>23408</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2089485359040789</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1235117916757079</v>
+        <v>0.1172434549733549</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3348555312111134</v>
+        <v>0.32555812266506</v>
       </c>
     </row>
     <row r="42">
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5805</v>
+        <v>6086</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1242166917917591</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3617928428903672</v>
+        <v>0.3792807437886341</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>8</v>
@@ -9895,19 +9895,19 @@
         <v>10869</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>5269</v>
+        <v>5034</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>19457</v>
+        <v>19456</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1945830799655742</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.09433311135933302</v>
+        <v>0.09012187970916559</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3483340093536019</v>
+        <v>0.3483222074109493</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>10</v>
@@ -9916,19 +9916,19 @@
         <v>12862</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6146</v>
+        <v>6295</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>21974</v>
+        <v>21659</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1788807854481335</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.08547452252377132</v>
+        <v>0.08754703684426333</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3056121177872951</v>
+        <v>0.3012411212620166</v>
       </c>
     </row>
     <row r="43">
@@ -10009,19 +10009,19 @@
         <v>3383</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>9161</v>
+        <v>8435</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01969543572578491</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0</v>
+        <v>0.005615903245633764</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.05332688124286409</v>
+        <v>0.04910339140021838</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>3</v>
@@ -10033,16 +10033,16 @@
         <v>977</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>8779</v>
+        <v>9130</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01387310789264863</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.004005950159071041</v>
+        <v>0.004004964221675508</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.03599789548860702</v>
+        <v>0.03743495573652385</v>
       </c>
     </row>
     <row r="45">
@@ -10059,19 +10059,19 @@
         <v>4216</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>8692</v>
+        <v>9401</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.05847736951517589</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.02198939777530906</v>
+        <v>0.02184255247314981</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1205537243169123</v>
+        <v>0.1303925030573097</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>9</v>
@@ -10080,19 +10080,19 @@
         <v>11643</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>5784</v>
+        <v>5260</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>21410</v>
+        <v>20992</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.06777593983061829</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.03367000237500649</v>
+        <v>0.03061889658127953</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1246315398958958</v>
+        <v>0.1221962467230234</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>14</v>
@@ -10101,19 +10101,19 @@
         <v>15859</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>9177</v>
+        <v>8941</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>25918</v>
+        <v>25086</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.06502711388384845</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.03762872436395551</v>
+        <v>0.03666172842255344</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1062697395570246</v>
+        <v>0.1028609228853934</v>
       </c>
     </row>
     <row r="46">
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>3288</v>
+        <v>3363</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01020766022857173</v>
@@ -10142,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04560662091644813</v>
+        <v>0.04664109849536623</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>0</v>
@@ -10167,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>3767</v>
+        <v>3784</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.003017569404783654</v>
@@ -10176,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01544489319136979</v>
+        <v>0.01551695708368047</v>
       </c>
     </row>
     <row r="47">
@@ -10193,19 +10193,19 @@
         <v>12314</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>7579</v>
+        <v>7008</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>20038</v>
+        <v>19030</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1708045041030374</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1051177534982046</v>
+        <v>0.09720228234616667</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2779325963692897</v>
+        <v>0.2639542840429796</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>34</v>
@@ -10214,19 +10214,19 @@
         <v>43407</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>32000</v>
+        <v>30624</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>56668</v>
+        <v>55836</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2526795562722639</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1862756040773259</v>
+        <v>0.1782671614827454</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3298738081073748</v>
+        <v>0.3250293695501716</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>48</v>
@@ -10235,19 +10235,19 @@
         <v>55722</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>42113</v>
+        <v>42208</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>70054</v>
+        <v>71623</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.228475806646137</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1726767102243293</v>
+        <v>0.1730634157465337</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2872413927789017</v>
+        <v>0.2936768993529574</v>
       </c>
     </row>
     <row r="48">
@@ -10264,19 +10264,19 @@
         <v>11967</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>7049</v>
+        <v>6720</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>18451</v>
+        <v>18714</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.165979352202545</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.09777428333103966</v>
+        <v>0.09320659861745327</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.255919693960519</v>
+        <v>0.2595641778039472</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>36</v>
@@ -10285,19 +10285,19 @@
         <v>46055</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>33573</v>
+        <v>33698</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>59491</v>
+        <v>59433</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2680907731853339</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1954324231674708</v>
+        <v>0.1961612327216811</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3463067082633674</v>
+        <v>0.345964621177146</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>50</v>
@@ -10306,19 +10306,19 @@
         <v>58021</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>44299</v>
+        <v>45284</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>72758</v>
+        <v>73120</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2379047860994608</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1816392846346663</v>
+        <v>0.1856763357868216</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2983292747417945</v>
+        <v>0.2998117437841211</v>
       </c>
     </row>
     <row r="49">
@@ -10335,19 +10335,19 @@
         <v>5831</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1756</v>
+        <v>2310</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>12811</v>
+        <v>12109</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.08088307352291238</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.02436179196669721</v>
+        <v>0.03204221437562474</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1776892355511038</v>
+        <v>0.1679542543505484</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>24</v>
@@ -10356,19 +10356,19 @@
         <v>28613</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>19733</v>
+        <v>18906</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>41006</v>
+        <v>41034</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1665573511531038</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1148659067761599</v>
+        <v>0.1100554487971303</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2386984076038163</v>
+        <v>0.2388663024602657</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>29</v>
@@ -10377,19 +10377,19 @@
         <v>34444</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>24497</v>
+        <v>23168</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>49366</v>
+        <v>47464</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1412304816095649</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1004458536183684</v>
+        <v>0.09499760015684625</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2024157201574524</v>
+        <v>0.1946183490403093</v>
       </c>
     </row>
     <row r="50">
@@ -10409,7 +10409,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>6807</v>
+        <v>8673</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.02900462297792928</v>
@@ -10418,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.09440993501924061</v>
+        <v>0.1202939327963745</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>2</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>8475</v>
+        <v>8653</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01434574323962619</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.04933561670297586</v>
+        <v>0.05036938913817583</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>4</v>
@@ -10448,19 +10448,19 @@
         <v>4556</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1226</v>
+        <v>1252</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>10551</v>
+        <v>10949</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.0186791738217779</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.005026056760785478</v>
+        <v>0.005135035215573514</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.04326015995184579</v>
+        <v>0.04489434194098725</v>
       </c>
     </row>
     <row r="51">
@@ -10477,19 +10477,19 @@
         <v>33980</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>26061</v>
+        <v>26789</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>42571</v>
+        <v>43080</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.4713092916578513</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.3614753873126517</v>
+        <v>0.3715686857298642</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5904681320569134</v>
+        <v>0.5975248281006592</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>20</v>
@@ -10498,19 +10498,19 @@
         <v>24193</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>15483</v>
+        <v>15306</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>36151</v>
+        <v>35917</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.1408286799002356</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.0901263783773526</v>
+        <v>0.08909686377976114</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.2104396402769177</v>
+        <v>0.2090752228145472</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>56</v>
@@ -10519,19 +10519,19 @@
         <v>58173</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>44820</v>
+        <v>45064</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>73631</v>
+        <v>73099</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.2385247395832001</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.1837767819076121</v>
+        <v>0.1847759374319234</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.3019095183625791</v>
+        <v>0.2997291478307761</v>
       </c>
     </row>
     <row r="52">
@@ -10548,19 +10548,19 @@
         <v>9746</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>5376</v>
+        <v>5130</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>16261</v>
+        <v>16313</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1351821428706154</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.07456329261075115</v>
+        <v>0.07115669828266706</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2255368521676862</v>
+        <v>0.2262643532246799</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>20</v>
@@ -10569,19 +10569,19 @@
         <v>26568</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>17253</v>
+        <v>16272</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>38527</v>
+        <v>40246</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1546563186860344</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1004342210611629</v>
+        <v>0.09472128898464305</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2242724049813964</v>
+        <v>0.2342792439694209</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>31</v>
@@ -10590,19 +10590,19 @@
         <v>36314</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>25423</v>
+        <v>25617</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>49428</v>
+        <v>50892</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1488993992933316</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1042401513849327</v>
+        <v>0.1050385281024619</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.2026692568420442</v>
+        <v>0.2086710574097864</v>
       </c>
     </row>
     <row r="53">
@@ -10913,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2668</v>
+        <v>2535</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.01850419906164969</v>
+        <v>0.0185041990616497</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1022688441691571</v>
+        <v>0.09717658517362107</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -10934,7 +10934,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2520</v>
+        <v>2301</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006122530845033448</v>
@@ -10943,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03829387778913571</v>
+        <v>0.03496501779860659</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -10955,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2994</v>
+        <v>3107</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00963758659270984</v>
@@ -10964,7 +10964,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03258130590682225</v>
+        <v>0.0338093839483723</v>
       </c>
     </row>
     <row r="5">
@@ -10981,19 +10981,19 @@
         <v>9997</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6465</v>
+        <v>6750</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14112</v>
+        <v>14433</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3832249441489688</v>
+        <v>0.383224944148969</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2478387231245323</v>
+        <v>0.2587444117182949</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5409712844590302</v>
+        <v>0.5532765901289739</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>57</v>
@@ -11002,19 +11002,19 @@
         <v>22810</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18157</v>
+        <v>18347</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27983</v>
+        <v>28634</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3466377014321207</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2759349291375642</v>
+        <v>0.2788133697788421</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4252520426686577</v>
+        <v>0.435154469543439</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>73</v>
@@ -11023,19 +11023,19 @@
         <v>32807</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27007</v>
+        <v>26629</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39188</v>
+        <v>39470</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3570245245607601</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2939102403013171</v>
+        <v>0.2897905512514207</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4264684006375786</v>
+        <v>0.4295330511391504</v>
       </c>
     </row>
     <row r="6">
@@ -11055,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1703</v>
+        <v>1494</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0131171083093347</v>
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06529066926968244</v>
+        <v>0.05726981353430091</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -11076,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2888</v>
+        <v>3743</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.00962974937640545</v>
@@ -11085,7 +11085,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04388466890671366</v>
+        <v>0.05688053967925919</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3411</v>
+        <v>3365</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01061978245167013</v>
@@ -11106,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03711772985662661</v>
+        <v>0.03662403838281104</v>
       </c>
     </row>
     <row r="7">
@@ -11123,19 +11123,19 @@
         <v>16765</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12787</v>
+        <v>12573</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20771</v>
+        <v>20357</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.642667813282099</v>
+        <v>0.6426678132820992</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4901828112411095</v>
+        <v>0.4819617264336177</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7962137043857307</v>
+        <v>0.7803365141493864</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>85</v>
@@ -11144,19 +11144,19 @@
         <v>36465</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30935</v>
+        <v>30353</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41591</v>
+        <v>41372</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5541601451723325</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4701131712205633</v>
+        <v>0.4612760215545841</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6320505574028695</v>
+        <v>0.6287190957751864</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>116</v>
@@ -11165,19 +11165,19 @@
         <v>53231</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47015</v>
+        <v>46594</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>59973</v>
+        <v>59998</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5792867583281558</v>
+        <v>0.5792867583281559</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.51164249485959</v>
+        <v>0.5070619596451059</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.652664684093046</v>
+        <v>0.6529382145455707</v>
       </c>
     </row>
     <row r="8">
@@ -11194,19 +11194,19 @@
         <v>1462</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4292</v>
+        <v>3727</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.05603011630909749</v>
+        <v>0.0560301163090975</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01771478960855189</v>
+        <v>0.01661043323550102</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1645230684840459</v>
+        <v>0.1428600488687779</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>30</v>
@@ -11215,19 +11215,19 @@
         <v>13841</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9571</v>
+        <v>9633</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18567</v>
+        <v>18769</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2103365405094658</v>
+        <v>0.2103365405094659</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1454525747381814</v>
+        <v>0.1463962671472407</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2821651768312874</v>
+        <v>0.2852282483638255</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>33</v>
@@ -11236,19 +11236,19 @@
         <v>15302</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10739</v>
+        <v>10832</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20446</v>
+        <v>20900</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1665301911710949</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1168640919461936</v>
+        <v>0.1178790128890168</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2225051333244305</v>
+        <v>0.2274510859647406</v>
       </c>
     </row>
     <row r="9">
@@ -11268,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2868</v>
+        <v>2625</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03215961981967251</v>
@@ -11277,7 +11277,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1099250201390539</v>
+        <v>0.1006378177679147</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -11286,19 +11286,19 @@
         <v>1419</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>444</v>
+        <v>354</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3517</v>
+        <v>3310</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02155758509391269</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006742561082250562</v>
+        <v>0.005382451591753783</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05345450876183807</v>
+        <v>0.0503037744446549</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -11307,19 +11307,19 @@
         <v>2257</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>905</v>
+        <v>937</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5099</v>
+        <v>4917</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02456741724640363</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.009851285337479625</v>
+        <v>0.01019224619891289</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05549437525578911</v>
+        <v>0.05350442784768769</v>
       </c>
     </row>
     <row r="10">
@@ -11352,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2202</v>
+        <v>2014</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00603902101230594</v>
@@ -11361,7 +11361,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03345948177329182</v>
+        <v>0.03059964677090096</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -11373,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1896</v>
+        <v>2242</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004324591652039517</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0206363222415355</v>
+        <v>0.02439510672771705</v>
       </c>
     </row>
     <row r="11">
@@ -11399,19 +11399,19 @@
         <v>4705</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2211</v>
+        <v>2369</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8473</v>
+        <v>8712</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1803662680784037</v>
+        <v>0.1803662680784038</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08475177343511089</v>
+        <v>0.09080779096903668</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3248134230143884</v>
+        <v>0.3339741776528768</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -11420,19 +11420,19 @@
         <v>8106</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5024</v>
+        <v>5219</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12328</v>
+        <v>12529</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1231918937402999</v>
+        <v>0.1231918937402998</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07634913264597189</v>
+        <v>0.07931581511932646</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1873471326374066</v>
+        <v>0.1903983474191694</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -11441,19 +11441,19 @@
         <v>12812</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8742</v>
+        <v>8615</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18185</v>
+        <v>17724</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.139423237499556</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09514089710911774</v>
+        <v>0.09375803600109403</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1979008778324924</v>
+        <v>0.1928793291497325</v>
       </c>
     </row>
     <row r="12">
@@ -11470,19 +11470,19 @@
         <v>6192</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3218</v>
+        <v>3327</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10348</v>
+        <v>9989</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2373689203967156</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1233743380310832</v>
+        <v>0.1275436460818619</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3966783969052911</v>
+        <v>0.3829131469058919</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -11491,19 +11491,19 @@
         <v>12010</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8172</v>
+        <v>8288</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17089</v>
+        <v>16709</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1825117435611568</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.124183834771402</v>
+        <v>0.1259554530327819</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2596928554625382</v>
+        <v>0.2539248411227604</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>37</v>
@@ -11512,19 +11512,19 @@
         <v>18202</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>13204</v>
+        <v>12986</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>24607</v>
+        <v>24736</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1980852536378004</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.143693207989867</v>
+        <v>0.1413246712146994</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2677870709770031</v>
+        <v>0.2691938882169315</v>
       </c>
     </row>
     <row r="13">
@@ -11595,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2013</v>
+        <v>2066</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01546930781757648</v>
@@ -11604,7 +11604,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07667745552760695</v>
+        <v>0.07870449577992424</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -11613,19 +11613,19 @@
         <v>2824</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>999</v>
+        <v>1091</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6336</v>
+        <v>6568</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03813875086013403</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01349697989796018</v>
+        <v>0.01473596773526305</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08558364388345156</v>
+        <v>0.08870801691778579</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -11634,19 +11634,19 @@
         <v>3230</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1085</v>
+        <v>1237</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6527</v>
+        <v>6972</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03220458230668981</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01081758604812006</v>
+        <v>0.01233658427752952</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06507887243187652</v>
+        <v>0.06952220890582168</v>
       </c>
     </row>
     <row r="15">
@@ -11663,19 +11663,19 @@
         <v>6879</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3499</v>
+        <v>3908</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10527</v>
+        <v>11322</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2620195229204441</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1332687923628452</v>
+        <v>0.1488413909182046</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4009656783243834</v>
+        <v>0.4312749144000221</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>41</v>
@@ -11684,19 +11684,19 @@
         <v>21807</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>16669</v>
+        <v>16462</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>27751</v>
+        <v>28046</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2945410402273819</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2251477933996404</v>
+        <v>0.2223485613204455</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3748285661434383</v>
+        <v>0.3788150179377258</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>52</v>
@@ -11705,19 +11705,19 @@
         <v>28686</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>22538</v>
+        <v>21883</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>36107</v>
+        <v>36335</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2860278992141322</v>
+        <v>0.2860278992141323</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2247250383644424</v>
+        <v>0.2181974302029512</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3600284838892728</v>
+        <v>0.3623029972202091</v>
       </c>
     </row>
     <row r="16">
@@ -11750,7 +11750,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2405</v>
+        <v>2673</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006289503114594839</v>
@@ -11759,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03248263900401958</v>
+        <v>0.03610111424953476</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2760</v>
+        <v>2700</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004643103089267735</v>
@@ -11780,7 +11780,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02752329602893049</v>
+        <v>0.0269182866085722</v>
       </c>
     </row>
     <row r="17">
@@ -11797,19 +11797,19 @@
         <v>16678</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12672</v>
+        <v>12178</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20714</v>
+        <v>20117</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6352714290079948</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4826915705638399</v>
+        <v>0.4638665733925166</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7890277801578356</v>
+        <v>0.7662759296513694</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>85</v>
@@ -11818,19 +11818,19 @@
         <v>45163</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39053</v>
+        <v>38741</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>51271</v>
+        <v>51559</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6100039973494846</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5274736826583947</v>
+        <v>0.5232661517676102</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6925103587615409</v>
+        <v>0.6963990633885219</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>111</v>
@@ -11839,19 +11839,19 @@
         <v>61841</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>54431</v>
+        <v>54614</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>69002</v>
+        <v>68946</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6166182400590539</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5427341637684585</v>
+        <v>0.5445614002640031</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.688021689783936</v>
+        <v>0.6874686830574551</v>
       </c>
     </row>
     <row r="18">
@@ -11868,19 +11868,19 @@
         <v>3135</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1028</v>
+        <v>1090</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6938</v>
+        <v>7199</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1194075426094975</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03916101884898188</v>
+        <v>0.04151181705927266</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2642598089618967</v>
+        <v>0.274223532577542</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>28</v>
@@ -11889,19 +11889,19 @@
         <v>15951</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11173</v>
+        <v>11472</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22506</v>
+        <v>22066</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2154446874671695</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1509084306572989</v>
+        <v>0.1549548632685951</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3039791574551662</v>
+        <v>0.298037166766129</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>33</v>
@@ -11910,19 +11910,19 @@
         <v>19086</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13522</v>
+        <v>13082</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>25441</v>
+        <v>25751</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1903050929960092</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1348321662514895</v>
+        <v>0.1304450114665707</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2536792471887738</v>
+        <v>0.2567663751395385</v>
       </c>
     </row>
     <row r="19">
@@ -11942,7 +11942,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5153</v>
+        <v>4461</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05360900559542139</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1962915775385806</v>
+        <v>0.1699077267527991</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -11960,19 +11960,19 @@
         <v>2822</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1187</v>
+        <v>1274</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6023</v>
+        <v>5999</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03811209237264508</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01602615048455125</v>
+        <v>0.01720297516176891</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08135462634901752</v>
+        <v>0.08102110805965849</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -11981,19 +11981,19 @@
         <v>4229</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1919</v>
+        <v>1886</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8528</v>
+        <v>8266</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04216871145011483</v>
+        <v>0.04216871145011484</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01913744473373052</v>
+        <v>0.01880219487927369</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08503592821383395</v>
+        <v>0.0824184374722625</v>
       </c>
     </row>
     <row r="20">
@@ -12057,19 +12057,19 @@
         <v>7317</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3977</v>
+        <v>4133</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11235</v>
+        <v>11437</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2787094542228543</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.151499683672142</v>
+        <v>0.1574291029639718</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4279405863761662</v>
+        <v>0.4356538941083443</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>28</v>
@@ -12078,19 +12078,19 @@
         <v>16263</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>11410</v>
+        <v>11081</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21585</v>
+        <v>22314</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2196568172567103</v>
+        <v>0.2196568172567104</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.154105748038074</v>
+        <v>0.1496674222106679</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2915390441604164</v>
+        <v>0.3013913505260303</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>40</v>
@@ -12099,19 +12099,19 @@
         <v>23580</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>18071</v>
+        <v>17338</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>31463</v>
+        <v>30602</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.2351149959435261</v>
+        <v>0.2351149959435262</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1801858397363034</v>
+        <v>0.172875061847364</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3137242608699162</v>
+        <v>0.3051395905788</v>
       </c>
     </row>
     <row r="22">
@@ -12128,19 +12128,19 @@
         <v>2062</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4813</v>
+        <v>5055</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07853555559804844</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02007598144530866</v>
+        <v>0.01901098741280837</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1833287619079786</v>
+        <v>0.1925573446018908</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -12149,19 +12149,19 @@
         <v>12428</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8401</v>
+        <v>8514</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17578</v>
+        <v>17917</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1678602145218808</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1134724364137598</v>
+        <v>0.1150028135813539</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2374164800072665</v>
+        <v>0.2419978090604702</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>28</v>
@@ -12170,19 +12170,19 @@
         <v>14490</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9718</v>
+        <v>10075</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19648</v>
+        <v>20513</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1444777440730994</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09689960776675594</v>
+        <v>0.1004554760412825</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.195910155996453</v>
+        <v>0.2045321492884786</v>
       </c>
     </row>
     <row r="23">
@@ -12253,16 +12253,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5575</v>
+        <v>6325</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.08008960244439994</v>
+        <v>0.08008960244439993</v>
       </c>
       <c r="H24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2411178902040228</v>
+        <v>0.2735562591838582</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -12271,19 +12271,19 @@
         <v>2632</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5959</v>
+        <v>6121</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05519048347336516</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01418746271708074</v>
+        <v>0.01422588437848545</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1249563691395041</v>
+        <v>0.1283421702094186</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -12292,19 +12292,19 @@
         <v>4484</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8882</v>
+        <v>8816</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.06332091579466588</v>
+        <v>0.06332091579466584</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02300973805955176</v>
+        <v>0.02292834817041794</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1254244513442399</v>
+        <v>0.1244999326355277</v>
       </c>
     </row>
     <row r="25">
@@ -12321,19 +12321,19 @@
         <v>3612</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1354</v>
+        <v>1289</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7989</v>
+        <v>8435</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1562159567184833</v>
+        <v>0.1562159567184832</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05857479926679112</v>
+        <v>0.05574940735642872</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3454933695281465</v>
+        <v>0.3647680115445496</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -12342,19 +12342,19 @@
         <v>10562</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6272</v>
+        <v>6269</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15688</v>
+        <v>15595</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2214718378429867</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1315126092627506</v>
+        <v>0.1314529057874169</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3289539300506455</v>
+        <v>0.3270120329842084</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -12363,19 +12363,19 @@
         <v>14174</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9485</v>
+        <v>9215</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20693</v>
+        <v>20282</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2001635126100008</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1339411735193471</v>
+        <v>0.130137059849829</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2922278476479772</v>
+        <v>0.2864157814074915</v>
       </c>
     </row>
     <row r="26">
@@ -12395,7 +12395,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3809</v>
+        <v>2965</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0298614037217974</v>
@@ -12404,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.164711354140709</v>
+        <v>0.1282155975317239</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -12416,7 +12416,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3460</v>
+        <v>4070</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01441984873193494</v>
@@ -12425,7 +12425,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07256210545471883</v>
+        <v>0.08533582345670671</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4865</v>
+        <v>4230</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01946205596532213</v>
@@ -12446,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06870726969755905</v>
+        <v>0.05974066202438047</v>
       </c>
     </row>
     <row r="27">
@@ -12463,19 +12463,19 @@
         <v>9018</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5119</v>
+        <v>5165</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>13768</v>
+        <v>13478</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3900166399760743</v>
+        <v>0.3900166399760742</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2213758824543801</v>
+        <v>0.2233544966185215</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5954230401060404</v>
+        <v>0.582887307326004</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>41</v>
@@ -12484,19 +12484,19 @@
         <v>25948</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>19969</v>
+        <v>20481</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>31081</v>
+        <v>31316</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.544093699850787</v>
+        <v>0.5440936998507869</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4187282823685572</v>
+        <v>0.4294585440231717</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6517209919802133</v>
+        <v>0.6566515999502995</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>51</v>
@@ -12505,19 +12505,19 @@
         <v>34966</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>27496</v>
+        <v>28128</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>41276</v>
+        <v>42576</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.4937821563365916</v>
+        <v>0.4937821563365914</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3882970395203637</v>
+        <v>0.3972241006080711</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5828997716186604</v>
+        <v>0.6012526448240174</v>
       </c>
     </row>
     <row r="28">
@@ -12534,19 +12534,19 @@
         <v>5739</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2318</v>
+        <v>2551</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10173</v>
+        <v>10262</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2482148722910602</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1002434530679099</v>
+        <v>0.1103268029975127</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4399600916080795</v>
+        <v>0.4438098679628213</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>17</v>
@@ -12555,19 +12555,19 @@
         <v>11806</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7386</v>
+        <v>7718</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17060</v>
+        <v>17707</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2475630402801876</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1548795565378299</v>
+        <v>0.1618357895663728</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3577170327282739</v>
+        <v>0.3712915004135207</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -12576,19 +12576,19 @@
         <v>17546</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11719</v>
+        <v>11493</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>24099</v>
+        <v>23759</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.2477758862068014</v>
+        <v>0.2477758862068013</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1654957861610102</v>
+        <v>0.1623096812451628</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3403181687963288</v>
+        <v>0.3355277115048186</v>
       </c>
     </row>
     <row r="29">
@@ -12608,7 +12608,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4431</v>
+        <v>3894</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03862022055132636</v>
@@ -12617,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1916485580195129</v>
+        <v>0.1684091681753136</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -12626,19 +12626,19 @@
         <v>3886</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1815</v>
+        <v>1455</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8402</v>
+        <v>7616</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.08148826126445059</v>
+        <v>0.08148826126445061</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03805982106071706</v>
+        <v>0.03050575669813039</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.176176326841727</v>
+        <v>0.1597003487599329</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -12647,19 +12647,19 @@
         <v>4779</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1984</v>
+        <v>2067</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9047</v>
+        <v>8821</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.06749034815875912</v>
+        <v>0.06749034815875909</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02801381302154548</v>
+        <v>0.02919176204654111</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.127754602312795</v>
+        <v>0.1245737543957668</v>
       </c>
     </row>
     <row r="30">
@@ -12723,19 +12723,19 @@
         <v>11864</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7598</v>
+        <v>7426</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>16070</v>
+        <v>16009</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.513067092430053</v>
+        <v>0.5130670924300529</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3285752454168681</v>
+        <v>0.3211618220115127</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6949625612878052</v>
+        <v>0.692333860111669</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>10</v>
@@ -12744,19 +12744,19 @@
         <v>5940</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3062</v>
+        <v>3010</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>10281</v>
+        <v>10059</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1245605484120654</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06419782311195266</v>
+        <v>0.06310917967096637</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2155811764189248</v>
+        <v>0.2109280463440567</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>25</v>
@@ -12765,19 +12765,19 @@
         <v>17804</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>12534</v>
+        <v>11813</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>24639</v>
+        <v>24249</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2514215094844324</v>
+        <v>0.2514215094844323</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1770040132334006</v>
+        <v>0.1668243970929005</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3479445731163973</v>
+        <v>0.3424411977892342</v>
       </c>
     </row>
     <row r="32">
@@ -12794,19 +12794,19 @@
         <v>2547</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6738</v>
+        <v>6318</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1101671347977229</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0298223743341828</v>
+        <v>0.02875337927250734</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.291389080435052</v>
+        <v>0.2732515955067628</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>15</v>
@@ -12815,19 +12815,19 @@
         <v>9268</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5423</v>
+        <v>5461</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>14308</v>
+        <v>14419</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.1943347082736123</v>
+        <v>0.1943347082736124</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1137118103319223</v>
+        <v>0.1145183410327632</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3000190071635729</v>
+        <v>0.3023550123873541</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>18</v>
@@ -12836,19 +12836,19 @@
         <v>11815</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>7478</v>
+        <v>7327</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>18116</v>
+        <v>17433</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.166851054711818</v>
+        <v>0.1668510547118179</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1055969886769051</v>
+        <v>0.1034718431985934</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2558321804656637</v>
+        <v>0.2461834844905125</v>
       </c>
     </row>
     <row r="33">
@@ -12919,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4474</v>
+        <v>4178</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03937366118745408</v>
@@ -12928,7 +12928,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1350959934939149</v>
+        <v>0.1261821957904004</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -12937,19 +12937,19 @@
         <v>4381</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1863</v>
+        <v>1871</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8429</v>
+        <v>8600</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04983903462719314</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02119969886356081</v>
+        <v>0.02128678505627683</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09588823022519949</v>
+        <v>0.09783987242061264</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>9</v>
@@ -12958,19 +12958,19 @@
         <v>5685</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2591</v>
+        <v>3064</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>9685</v>
+        <v>10896</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04697531929104827</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02141020101372786</v>
+        <v>0.02532090147280174</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08003350356889612</v>
+        <v>0.09003909789512535</v>
       </c>
     </row>
     <row r="35">
@@ -12987,19 +12987,19 @@
         <v>2992</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1038</v>
+        <v>1111</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6257</v>
+        <v>6649</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0903686128154972</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0313395500552282</v>
+        <v>0.03354084924627722</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1889517762156034</v>
+        <v>0.2008029065333203</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>34</v>
@@ -13008,19 +13008,19 @@
         <v>20116</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>14499</v>
+        <v>14215</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>27312</v>
+        <v>26465</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2288557780907178</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1649491147175044</v>
+        <v>0.1617144482854552</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3107137194958514</v>
+        <v>0.3010816941688104</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>39</v>
@@ -13029,19 +13029,19 @@
         <v>23109</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>16708</v>
+        <v>16913</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>30413</v>
+        <v>30814</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1909605399187136</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1380679825245177</v>
+        <v>0.1397602432514309</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2513210446535035</v>
+        <v>0.2546351371955066</v>
       </c>
     </row>
     <row r="36">
@@ -13105,19 +13105,19 @@
         <v>11326</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>7554</v>
+        <v>7043</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>16408</v>
+        <v>15860</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3420208861885</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2281281865420446</v>
+        <v>0.2126774603766926</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4954876920873501</v>
+        <v>0.4789533313806321</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>77</v>
@@ -13126,19 +13126,19 @@
         <v>45095</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>37776</v>
+        <v>38360</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>52287</v>
+        <v>52685</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5130266633049165</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4297569322204686</v>
+        <v>0.43640939768403</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5948435861049461</v>
+        <v>0.5993785145404412</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>95</v>
@@ -13147,19 +13147,19 @@
         <v>56420</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>48399</v>
+        <v>47681</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>65348</v>
+        <v>65121</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4662331237033461</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3999495352787331</v>
+        <v>0.3940191664287002</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5400074618490375</v>
+        <v>0.5381354785933183</v>
       </c>
     </row>
     <row r="38">
@@ -13176,19 +13176,19 @@
         <v>3925</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1311</v>
+        <v>1540</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>7550</v>
+        <v>7855</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1185210281258162</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03959188015643772</v>
+        <v>0.046503618787209</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2280105215257923</v>
+        <v>0.2372150122973639</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>31</v>
@@ -13197,19 +13197,19 @@
         <v>17759</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>12512</v>
+        <v>12552</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>24634</v>
+        <v>24103</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2020312000557174</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1423422864227463</v>
+        <v>0.142795396150954</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2802493866458933</v>
+        <v>0.2742058594741296</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>37</v>
@@ -13218,19 +13218,19 @@
         <v>21683</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>15972</v>
+        <v>15727</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>28785</v>
+        <v>28512</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.1791797116251511</v>
+        <v>0.1791797116251512</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1319848279409542</v>
+        <v>0.1299630236025916</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2378702755985174</v>
+        <v>0.2356116850767461</v>
       </c>
     </row>
     <row r="39">
@@ -13247,19 +13247,19 @@
         <v>2807</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1010</v>
+        <v>1061</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>6150</v>
+        <v>5894</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.08477462095839022</v>
+        <v>0.08477462095839024</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.03051473479185778</v>
+        <v>0.03203674906904203</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1857101658422822</v>
+        <v>0.1780004324473826</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>9</v>
@@ -13268,19 +13268,19 @@
         <v>4571</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1975</v>
+        <v>2235</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>8237</v>
+        <v>8145</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.05199791158174576</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.02246947992858564</v>
+        <v>0.02542243499014962</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.09371423885167232</v>
+        <v>0.09266362748167113</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>14</v>
@@ -13289,19 +13289,19 @@
         <v>7378</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>4135</v>
+        <v>4120</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>11994</v>
+        <v>11785</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.06096683809456786</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.03416635144396381</v>
+        <v>0.03404353552824733</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.09911280677086956</v>
+        <v>0.0973838305955718</v>
       </c>
     </row>
     <row r="40">
@@ -13321,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3865</v>
+        <v>3615</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01955372905236181</v>
@@ -13330,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1167155266729547</v>
+        <v>0.1091590284293244</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3</v>
@@ -13339,19 +13339,19 @@
         <v>2063</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>585</v>
+        <v>438</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>5960</v>
+        <v>6262</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02346633090671998</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.006650916812724439</v>
+        <v>0.004986534927364627</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.06780822111017315</v>
+        <v>0.07123561480971635</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4</v>
@@ -13360,19 +13360,19 @@
         <v>2710</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>6748</v>
+        <v>7308</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02239569754623154</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.005419055260758206</v>
+        <v>0.005298303484293599</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.05576324572686753</v>
+        <v>0.0603876232395025</v>
       </c>
     </row>
     <row r="41">
@@ -13389,19 +13389,19 @@
         <v>15858</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>11425</v>
+        <v>11614</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>20381</v>
+        <v>20824</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.4788910087828356</v>
+        <v>0.4788910087828355</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3450184627896357</v>
+        <v>0.3507355566877999</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.6154816734089883</v>
+        <v>0.6288715221276022</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>19</v>
@@ -13410,19 +13410,19 @@
         <v>11031</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>7135</v>
+        <v>7178</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>16506</v>
+        <v>16273</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1254906579513483</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0811661782319756</v>
+        <v>0.08166140488046403</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1877852911102954</v>
+        <v>0.1851352803154668</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>44</v>
@@ -13431,19 +13431,19 @@
         <v>26888</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>20213</v>
+        <v>20526</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>34933</v>
+        <v>34785</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.2221941354051199</v>
+        <v>0.2221941354051198</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.167034937158945</v>
+        <v>0.1696194262228994</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2886704493088244</v>
+        <v>0.2874519641477938</v>
       </c>
     </row>
     <row r="42">
@@ -13460,19 +13460,19 @@
         <v>5293</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2594</v>
+        <v>2847</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>9200</v>
+        <v>9464</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1598565068736854</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.07833499604453913</v>
+        <v>0.08597611882137146</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2778413078965897</v>
+        <v>0.2858127861585113</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>26</v>
@@ -13481,19 +13481,19 @@
         <v>16203</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>10863</v>
+        <v>11036</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>22988</v>
+        <v>23275</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1843384867901421</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1235805164468707</v>
+        <v>0.1255492573932577</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2615275083997398</v>
+        <v>0.2647889730473114</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>35</v>
@@ -13502,19 +13502,19 @@
         <v>21497</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>15424</v>
+        <v>15545</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>29406</v>
+        <v>30044</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1776393067035788</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1274538583031511</v>
+        <v>0.1284555517347005</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2430017993742436</v>
+        <v>0.2482719124858255</v>
       </c>
     </row>
     <row r="43">
@@ -13582,19 +13582,19 @@
         <v>4045</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1505</v>
+        <v>1343</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>8889</v>
+        <v>8577</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.03725064001981527</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01385945346027956</v>
+        <v>0.01236858423801795</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.08186678863477623</v>
+        <v>0.07899752120273411</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>17</v>
@@ -13603,19 +13603,19 @@
         <v>10239</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>6049</v>
+        <v>5947</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>15278</v>
+        <v>16018</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.03717615998184404</v>
+        <v>0.03717615998184405</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.02196044001853972</v>
+        <v>0.02159277852515854</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.05547016036116886</v>
+        <v>0.05815760713793084</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>23</v>
@@ -13624,19 +13624,19 @@
         <v>14284</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>9025</v>
+        <v>9528</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>21398</v>
+        <v>21023</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.03719721893155044</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02350296335789327</v>
+        <v>0.02481337920161776</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.0557237795047418</v>
+        <v>0.05474552275018014</v>
       </c>
     </row>
     <row r="45">
@@ -13653,19 +13653,19 @@
         <v>23480</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>16963</v>
+        <v>17191</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>31158</v>
+        <v>31333</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2162579602402793</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1562361538393017</v>
+        <v>0.1583329856122781</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2869673537276235</v>
+        <v>0.2885784679655694</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>148</v>
@@ -13674,19 +13674,19 @@
         <v>75295</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>65186</v>
+        <v>64375</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>87217</v>
+        <v>86081</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.2733732367841714</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.2366701653125459</v>
+        <v>0.233727929998526</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.3166590984155079</v>
+        <v>0.3125354102616713</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>184</v>
@@ -13695,19 +13695,19 @@
         <v>98775</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>86513</v>
+        <v>86008</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>111738</v>
+        <v>113577</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.2572241078502011</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.2252900549994626</v>
+        <v>0.2239764350763035</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.29097976522133</v>
+        <v>0.2957699644937401</v>
       </c>
     </row>
     <row r="46">
@@ -13727,7 +13727,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>3992</v>
+        <v>3438</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.009510943641865922</v>
@@ -13736,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03676427017755933</v>
+        <v>0.03166371045422879</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>3</v>
@@ -13748,16 +13748,16 @@
         <v>468</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>5216</v>
+        <v>4744</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.006488056625752535</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.00169827402983716</v>
+        <v>0.00169857946879531</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.0189380216403978</v>
+        <v>0.01722480605814099</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>5</v>
@@ -13766,19 +13766,19 @@
         <v>2820</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>6635</v>
+        <v>6489</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.007342766523524365</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.00267863021448026</v>
+        <v>0.002643720474610946</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01727939026323369</v>
+        <v>0.01689873397969786</v>
       </c>
     </row>
     <row r="47">
@@ -13795,19 +13795,19 @@
         <v>53787</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>44946</v>
+        <v>44837</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>62045</v>
+        <v>62481</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.4953820281619114</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.4139546664433064</v>
+        <v>0.41295069601322</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.5714460888680083</v>
+        <v>0.5754556056541611</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>288</v>
@@ -13816,19 +13816,19 @@
         <v>152671</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>141539</v>
+        <v>140380</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>165476</v>
+        <v>164654</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.5543010829444253</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.5138843019793787</v>
+        <v>0.5096775015769961</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.6007935047953623</v>
+        <v>0.5978108457559543</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>373</v>
@@ -13837,19 +13837,19 @@
         <v>206457</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>190398</v>
+        <v>190460</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>220889</v>
+        <v>222069</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.5376419425195467</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.4958209510127506</v>
+        <v>0.4959833005710579</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.5752238568552629</v>
+        <v>0.578298275574024</v>
       </c>
     </row>
     <row r="48">
@@ -13866,19 +13866,19 @@
         <v>14260</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>9070</v>
+        <v>9002</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>21067</v>
+        <v>21552</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1313411637542455</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.08353435566703295</v>
+        <v>0.08290542847681764</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1940280290671074</v>
+        <v>0.1985000221308302</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>106</v>
@@ -13887,19 +13887,19 @@
         <v>59356</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>49115</v>
+        <v>49116</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>69968</v>
+        <v>70157</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2155047453801211</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.178320164640191</v>
+        <v>0.1783239936223067</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2540310172867332</v>
+        <v>0.2547204701340161</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>127</v>
@@ -13908,19 +13908,19 @@
         <v>73617</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>61548</v>
+        <v>62361</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>87257</v>
+        <v>86527</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1917078102435732</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1602787391689296</v>
+        <v>0.1623958438889028</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2272286635536672</v>
+        <v>0.2253268662920381</v>
       </c>
     </row>
     <row r="49">
@@ -13937,19 +13937,19 @@
         <v>5947</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>2998</v>
+        <v>3036</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>11179</v>
+        <v>10220</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.05476840324354136</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.02761352842248453</v>
+        <v>0.02796490807814715</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1029564199007272</v>
+        <v>0.09412675434669396</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>25</v>
@@ -13958,19 +13958,19 @@
         <v>12697</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>7705</v>
+        <v>8328</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>18140</v>
+        <v>18510</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.04609895414009209</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.02797553798366722</v>
+        <v>0.03023741909789351</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.06586212613972538</v>
+        <v>0.06720282034853467</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>35</v>
@@ -13979,19 +13979,19 @@
         <v>18644</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>12989</v>
+        <v>13204</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>26212</v>
+        <v>25452</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.04855020816230635</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.03382630851117586</v>
+        <v>0.03438562214179337</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.06825950954912456</v>
+        <v>0.06628058355422151</v>
       </c>
     </row>
     <row r="50">
@@ -14011,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>3223</v>
+        <v>3288</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.005963538338885629</v>
@@ -14020,7 +14020,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.02968872618746502</v>
+        <v>0.0302787203239714</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>4</v>
@@ -14029,19 +14029,19 @@
         <v>2460</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>606</v>
+        <v>785</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>6550</v>
+        <v>6087</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.008931759679016457</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.002198418007395228</v>
+        <v>0.002851672180222958</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.02378151520428646</v>
+        <v>0.02210053764639715</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>5</v>
@@ -14050,19 +14050,19 @@
         <v>3108</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>998</v>
+        <v>1036</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>7755</v>
+        <v>7371</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.008092506294862774</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.002598706735829268</v>
+        <v>0.002697700900881169</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.02019595535816887</v>
+        <v>0.01919449131511349</v>
       </c>
     </row>
     <row r="51">
@@ -14079,19 +14079,19 @@
         <v>39743</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>31292</v>
+        <v>31924</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>48005</v>
+        <v>47925</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.3660426200363449</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2882034640851892</v>
+        <v>0.2940285033285617</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.4421319111288348</v>
+        <v>0.441398832475243</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>76</v>
@@ -14100,19 +14100,19 @@
         <v>41340</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>33398</v>
+        <v>33561</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>51414</v>
+        <v>51430</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.1500927655139599</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.1212592061843816</v>
+        <v>0.1218513620123078</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.1866698345938961</v>
+        <v>0.1867254620843308</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>136</v>
@@ -14121,19 +14121,19 @@
         <v>81083</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>68430</v>
+        <v>68782</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>93233</v>
+        <v>94266</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.2111517720526767</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.1782016271123139</v>
+        <v>0.179118258023532</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.242791409894557</v>
+        <v>0.2454800468021189</v>
       </c>
     </row>
     <row r="52">
@@ -14150,19 +14150,19 @@
         <v>16095</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>10759</v>
+        <v>10571</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>22895</v>
+        <v>23060</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.1482351596738313</v>
+        <v>0.1482351596738314</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.09909327364845297</v>
+        <v>0.09736265146777222</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2108698350659924</v>
+        <v>0.2123886264706817</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>92</v>
@@ -14171,19 +14171,19 @@
         <v>49909</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>40949</v>
+        <v>40886</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>60671</v>
+        <v>59740</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1812034254498298</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1486734213580845</v>
+        <v>0.1484430797209509</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2202779260496186</v>
+        <v>0.2168962575360646</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>118</v>
@@ -14192,19 +14192,19 @@
         <v>66003</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>54467</v>
+        <v>55701</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>78985</v>
+        <v>78910</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.1718817726983657</v>
+        <v>0.1718817726983658</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1418387389605381</v>
+        <v>0.1450516379981255</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.2056875482515922</v>
+        <v>0.2054913006755562</v>
       </c>
     </row>
     <row r="53">
